--- a/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
+++ b/Admin/Arbeitszeiterfassung-2020-jcr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Projektarbeit\Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1F9336-156E-41D6-9D5F-D8F96FC24FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6F07A4-6726-4B37-B688-A160462AA01E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Voreinstellungen!$A$1:$J$38</definedName>
     <definedName name="SOLL_AZ_Ab">Voreinstellungen!$B$12:$B$16</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="163">
   <si>
     <t>Benutzer-Voreinstellungen</t>
   </si>
@@ -632,6 +632,12 @@
   </si>
   <si>
     <t>DMA 1st Lib test = Prog</t>
+  </si>
+  <si>
+    <t>LedRing works+AltiumStarted+Tasks improved = results</t>
+  </si>
+  <si>
+    <t>something</t>
   </si>
 </sst>
 </file>
@@ -3523,7 +3529,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="406">
+  <cellXfs count="407">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -5006,23 +5012,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="174" fontId="12" fillId="2" borderId="98" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -5043,48 +5032,25 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="118" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="132" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="173" fontId="2" fillId="3" borderId="136" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="1" fillId="2" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="137" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5107,6 +5073,46 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="165" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="168" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="186" fontId="1" fillId="2" borderId="170" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="173" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="175" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="178" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="180" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="2" borderId="182" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="2" borderId="185" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="187" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -5115,12 +5121,29 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0" hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="143">
+  <dxfs count="145">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFD250"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6889,6 +6912,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{234C0820-F133-43D8-A60F-A5B6E4C8F7B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7681,6 +7758,60 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C54C856D-E20B-408A-9D3C-BD2AD1B0DEA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9525000" cy="9525000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8511,16 +8642,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,8,1)</f>
         <v>42582</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -8531,20 +8662,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -8552,11 +8683,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -8646,7 +8777,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-7.8645833333333304</v>
+        <v>-7.4965277777777697</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8691,7 +8822,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-7.8645833333333304</v>
+        <v>-7.4965277777777697</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8736,7 +8867,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8645833333333304</v>
+        <v>-7.4965277777777697</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8781,7 +8912,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8645833333333304</v>
+        <v>-7.4965277777777697</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8826,7 +8957,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.1979166666666607</v>
+        <v>-7.8298611111111001</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8871,7 +9002,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.3645833333333304</v>
+        <v>-7.9965277777777697</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8916,7 +9047,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6979166666666607</v>
+        <v>-8.3298611111111001</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -8961,7 +9092,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6979166666666607</v>
+        <v>-8.3298611111111001</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9006,7 +9137,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6979166666666607</v>
+        <v>-8.3298611111111001</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9051,7 +9182,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6979166666666607</v>
+        <v>-8.3298611111111001</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9096,7 +9227,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-8.6979166666666607</v>
+        <v>-8.3298611111111001</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9141,7 +9272,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.0312499999999893</v>
+        <v>-8.6631944444444304</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9186,7 +9317,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.1979166666666607</v>
+        <v>-8.8298611111111001</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9231,7 +9362,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5312499999999893</v>
+        <v>-9.1631944444444304</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9276,7 +9407,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5312499999999893</v>
+        <v>-9.1631944444444304</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9321,7 +9452,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5312499999999893</v>
+        <v>-9.1631944444444304</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9366,7 +9497,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5312499999999893</v>
+        <v>-9.1631944444444304</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9411,7 +9542,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.5312499999999893</v>
+        <v>-9.1631944444444304</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9456,7 +9587,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-9.8645833333333197</v>
+        <v>-9.4965277777777608</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9501,7 +9632,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.03125</v>
+        <v>-9.6631944444444304</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9546,7 +9677,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.3645833333333</v>
+        <v>-9.9965277777777608</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9591,7 +9722,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.3645833333333</v>
+        <v>-9.9965277777777608</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9636,7 +9767,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.3645833333333</v>
+        <v>-9.9965277777777608</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9681,7 +9812,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.3645833333333</v>
+        <v>-9.9965277777777608</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9726,7 +9857,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.3645833333333</v>
+        <v>-9.9965277777777608</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9771,7 +9902,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.6979166666666</v>
+        <v>-10.3298611111111</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9816,7 +9947,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-10.8645833333333</v>
+        <v>-10.4965277777778</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9861,7 +9992,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.1979166666666</v>
+        <v>-10.8298611111111</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9906,7 +10037,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.1979166666666</v>
+        <v>-10.8298611111111</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9951,7 +10082,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.1979166666666</v>
+        <v>-10.8298611111111</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9996,7 +10127,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.1979166666666</v>
+        <v>-10.8298611111111</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -10027,7 +10158,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juli!F40</f>
-        <v>-7.8645833333333304</v>
+        <v>-7.4965277777777697</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -10036,13 +10167,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -10068,14 +10199,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -10101,13 +10232,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10126,13 +10257,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!W2:W32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -10148,7 +10279,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-11.1979166666667</v>
+        <v>-10.8298611111111</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -10157,13 +10288,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -10198,14 +10329,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -10225,14 +10356,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -10256,14 +10387,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -10283,14 +10414,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -10310,14 +10441,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -10341,14 +10472,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -10357,65 +10488,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="HkAoB08lQnZcu3f192wHDHZ/7j0BngIzul3D/9PsKIWyl+xayA7p7vUaZD7hH7rwZOkGohOgh1523AysAnGDfg==" saltValue="sE8nUvkPIzP17sbT/37lEg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="73" priority="2">
+    <cfRule type="expression" dxfId="75" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="72" priority="3">
+    <cfRule type="expression" dxfId="74" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="4">
+    <cfRule type="expression" dxfId="73" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="70" priority="5">
+    <cfRule type="expression" dxfId="72" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="69" priority="6">
+    <cfRule type="expression" dxfId="71" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="68" priority="7">
+    <cfRule type="expression" dxfId="70" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="67" priority="8">
+    <cfRule type="expression" dxfId="69" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="66" priority="9">
+    <cfRule type="expression" dxfId="68" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="65" priority="10">
+    <cfRule type="expression" dxfId="67" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="11">
+    <cfRule type="expression" dxfId="66" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10462,16 +10593,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,9,1)</f>
         <v>42613</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -10482,20 +10613,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -10503,11 +10634,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -10597,7 +10728,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-11.1979166666667</v>
+        <v>-10.8298611111111</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10642,7 +10773,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-11.53125</v>
+        <v>-11.1631944444444</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10687,7 +10818,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-11.6979166666667</v>
+        <v>-11.3298611111111</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10732,7 +10863,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.03125</v>
+        <v>-11.6631944444444</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10777,7 +10908,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.03125</v>
+        <v>-11.6631944444444</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10822,7 +10953,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.03125</v>
+        <v>-11.6631944444444</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10867,7 +10998,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.03125</v>
+        <v>-11.6631944444444</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10912,7 +11043,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.03125</v>
+        <v>-11.6631944444444</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -10957,7 +11088,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.3645833333333</v>
+        <v>-11.9965277777777</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11002,7 +11133,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.53125</v>
+        <v>-12.1631944444444</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11047,7 +11178,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8645833333333</v>
+        <v>-12.4965277777777</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11092,7 +11223,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8645833333333</v>
+        <v>-12.4965277777777</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11137,7 +11268,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8645833333333</v>
+        <v>-12.4965277777777</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11182,7 +11313,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8645833333333</v>
+        <v>-12.4965277777777</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11227,7 +11358,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-12.8645833333333</v>
+        <v>-12.4965277777777</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11272,7 +11403,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.1979166666666</v>
+        <v>-12.829861111111001</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11317,7 +11448,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.3645833333333</v>
+        <v>-12.9965277777777</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11362,7 +11493,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.6979166666666</v>
+        <v>-13.329861111111001</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11407,7 +11538,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.6979166666666</v>
+        <v>-13.329861111111001</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11452,7 +11583,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.6979166666666</v>
+        <v>-13.329861111111001</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11497,7 +11628,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.6979166666666</v>
+        <v>-13.329861111111001</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11542,7 +11673,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-13.6979166666666</v>
+        <v>-13.329861111111001</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11587,7 +11718,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.031249999999901</v>
+        <v>-13.663194444444301</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11632,7 +11763,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.1979166666666</v>
+        <v>-13.829861111111001</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11677,7 +11808,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.531249999999901</v>
+        <v>-14.163194444444301</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11722,7 +11853,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.531249999999901</v>
+        <v>-14.163194444444301</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11767,7 +11898,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.531249999999901</v>
+        <v>-14.163194444444301</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11812,7 +11943,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.531249999999901</v>
+        <v>-14.163194444444301</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11857,7 +11988,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.531249999999901</v>
+        <v>-14.163194444444301</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11902,7 +12033,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-14.864583333333201</v>
+        <v>-14.496527777777599</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -11978,7 +12109,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">August!F40</f>
-        <v>-11.1979166666667</v>
+        <v>-10.8298611111111</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -11987,13 +12118,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -12019,14 +12150,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -12052,13 +12183,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12077,13 +12208,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Z2:Z32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -12099,7 +12230,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-14.8645833333334</v>
+        <v>-14.4965277777778</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -12108,13 +12239,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12149,14 +12280,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -12176,14 +12307,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -12207,14 +12338,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -12234,14 +12365,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -12261,14 +12392,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -12292,14 +12423,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -12308,65 +12439,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="WrJf3Le3I/KufBKgvBL84XO3UYX2zuYgLjnZ1rGaHSyWTCjiP7zkaZ7RngoDe7hgFgAEe/NFD80xutKnXk714A==" saltValue="LvVU6YLRvHqT2nS3BnwoDw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="63" priority="2">
+    <cfRule type="expression" dxfId="65" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="62" priority="3">
+    <cfRule type="expression" dxfId="64" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="4">
+    <cfRule type="expression" dxfId="63" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="60" priority="5">
+    <cfRule type="expression" dxfId="62" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="59" priority="6">
+    <cfRule type="expression" dxfId="61" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="58" priority="7">
+    <cfRule type="expression" dxfId="60" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="57" priority="8">
+    <cfRule type="expression" dxfId="59" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="56" priority="9">
+    <cfRule type="expression" dxfId="58" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="55" priority="10">
+    <cfRule type="expression" dxfId="57" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="11">
+    <cfRule type="expression" dxfId="56" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12413,16 +12544,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,10,1)</f>
         <v>42643</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -12433,20 +12564,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -12454,11 +12585,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -12548,7 +12679,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-15.031250000000099</v>
+        <v>-14.6631944444445</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12593,7 +12724,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-15.3645833333334</v>
+        <v>-14.9965277777778</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12638,7 +12769,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3645833333334</v>
+        <v>-14.9965277777778</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12683,7 +12814,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3645833333334</v>
+        <v>-14.9965277777778</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12728,7 +12859,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3645833333334</v>
+        <v>-14.9965277777778</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12773,7 +12904,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.3645833333334</v>
+        <v>-14.9965277777778</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12818,7 +12949,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.6979166666667</v>
+        <v>-15.3298611111111</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12863,7 +12994,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-15.8645833333334</v>
+        <v>-15.4965277777778</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12908,7 +13039,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.1979166666667</v>
+        <v>-15.8298611111111</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12953,7 +13084,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.1979166666667</v>
+        <v>-15.8298611111111</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -12998,7 +13129,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.1979166666667</v>
+        <v>-15.8298611111111</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13043,7 +13174,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.1979166666667</v>
+        <v>-15.8298611111111</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13088,7 +13219,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.1979166666667</v>
+        <v>-15.8298611111111</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13133,7 +13264,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.53125</v>
+        <v>-16.1631944444444</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13178,7 +13309,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-16.6979166666667</v>
+        <v>-16.3298611111111</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13223,7 +13354,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.03125</v>
+        <v>-16.6631944444444</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13268,7 +13399,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.03125</v>
+        <v>-16.6631944444444</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13313,7 +13444,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.03125</v>
+        <v>-16.6631944444444</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13358,7 +13489,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.03125</v>
+        <v>-16.6631944444444</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13403,7 +13534,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.03125</v>
+        <v>-16.6631944444444</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13448,7 +13579,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.3645833333333</v>
+        <v>-16.9965277777777</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13493,7 +13624,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.53125</v>
+        <v>-17.1631944444444</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13538,7 +13669,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8645833333333</v>
+        <v>-17.4965277777777</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13583,7 +13714,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8645833333333</v>
+        <v>-17.4965277777777</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13628,7 +13759,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8645833333333</v>
+        <v>-17.4965277777777</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13673,7 +13804,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8645833333333</v>
+        <v>-17.4965277777777</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13718,7 +13849,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-17.8645833333333</v>
+        <v>-17.4965277777777</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13763,7 +13894,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.1979166666666</v>
+        <v>-17.829861111111001</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13808,7 +13939,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.3645833333333</v>
+        <v>-17.9965277777777</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13853,7 +13984,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.6979166666666</v>
+        <v>-18.329861111111001</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -13898,7 +14029,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.6979166666666</v>
+        <v>-18.329861111111001</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -13929,7 +14060,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">September!F40</f>
-        <v>-14.8645833333334</v>
+        <v>-14.4965277777778</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -13938,13 +14069,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -13970,14 +14101,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -14003,13 +14134,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14028,13 +14159,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AC2:AC32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -14050,7 +14181,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-18.6979166666667</v>
+        <v>-18.3298611111111</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -14059,13 +14190,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -14100,14 +14231,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -14127,14 +14258,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -14158,14 +14289,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -14185,14 +14316,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -14212,14 +14343,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -14243,14 +14374,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -14259,65 +14390,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="RthWpkefgasVF7mUvUEwcv1PAQ5dnb7jdJEdiAtCsTcYrr2DXtkCOKlt8KBAcaZdDCRYzq33+CroGdjHatAXYA==" saltValue="gix2Bx2zL9EvbIvQixmH2w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="53" priority="2">
+    <cfRule type="expression" dxfId="55" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="52" priority="3">
+    <cfRule type="expression" dxfId="54" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="4">
+    <cfRule type="expression" dxfId="53" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="50" priority="5">
+    <cfRule type="expression" dxfId="52" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="49" priority="6">
+    <cfRule type="expression" dxfId="51" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="50" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="49" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="46" priority="9">
+    <cfRule type="expression" dxfId="48" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="45" priority="10">
+    <cfRule type="expression" dxfId="47" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="11">
+    <cfRule type="expression" dxfId="46" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14364,16 +14495,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,11,1)</f>
         <v>42674</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -14384,20 +14515,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -14405,11 +14536,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -14499,7 +14630,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-18.6979166666667</v>
+        <v>-18.3298611111111</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14544,7 +14675,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-18.6979166666667</v>
+        <v>-18.3298611111111</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14589,7 +14720,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-18.6979166666667</v>
+        <v>-18.3298611111111</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14634,7 +14765,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.03125</v>
+        <v>-18.6631944444444</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14679,7 +14810,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.1979166666667</v>
+        <v>-18.8298611111111</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14724,7 +14855,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.53125</v>
+        <v>-19.1631944444444</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14769,7 +14900,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.53125</v>
+        <v>-19.1631944444444</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14814,7 +14945,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.53125</v>
+        <v>-19.1631944444444</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14859,7 +14990,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.53125</v>
+        <v>-19.1631944444444</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14904,7 +15035,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.53125</v>
+        <v>-19.1631944444444</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14949,7 +15080,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-19.8645833333333</v>
+        <v>-19.4965277777777</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -14994,7 +15125,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.03125</v>
+        <v>-19.6631944444444</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15039,7 +15170,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.3645833333333</v>
+        <v>-19.9965277777777</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15084,7 +15215,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.3645833333333</v>
+        <v>-19.9965277777777</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15129,7 +15260,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.3645833333333</v>
+        <v>-19.9965277777777</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15174,7 +15305,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.3645833333333</v>
+        <v>-19.9965277777777</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15219,7 +15350,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.3645833333333</v>
+        <v>-19.9965277777777</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15264,7 +15395,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.6979166666666</v>
+        <v>-20.329861111111001</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15309,7 +15440,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-20.8645833333333</v>
+        <v>-20.4965277777777</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15354,7 +15485,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.1979166666666</v>
+        <v>-20.829861111111001</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15399,7 +15530,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.1979166666666</v>
+        <v>-20.829861111111001</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15444,7 +15575,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.1979166666666</v>
+        <v>-20.829861111111001</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15489,7 +15620,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.1979166666666</v>
+        <v>-20.829861111111001</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15534,7 +15665,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.1979166666666</v>
+        <v>-20.829861111111001</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15579,7 +15710,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.531249999999901</v>
+        <v>-21.163194444444301</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15624,7 +15755,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-21.6979166666666</v>
+        <v>-21.329861111111001</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15669,7 +15800,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.031249999999901</v>
+        <v>-21.663194444444301</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15714,7 +15845,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.031249999999901</v>
+        <v>-21.663194444444301</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15759,7 +15890,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.031249999999901</v>
+        <v>-21.663194444444301</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15804,7 +15935,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.031249999999901</v>
+        <v>-21.663194444444301</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -15880,7 +16011,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Oktober!F40</f>
-        <v>-18.6979166666667</v>
+        <v>-18.3298611111111</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -15889,13 +16020,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -15921,14 +16052,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -15954,13 +16085,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -15979,13 +16110,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AF2:AF32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -16001,7 +16132,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-22.03125</v>
+        <v>-21.6631944444444</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -16010,13 +16141,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -16051,14 +16182,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -16078,14 +16209,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -16109,14 +16240,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -16136,14 +16267,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -16163,14 +16294,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -16194,14 +16325,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -16210,65 +16341,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="BSHenHTjOeCLEK/Vhdt9DN47er8vHXKxixVq0zifYQ0YqDCLyIRjWwdu26DK6EbWV62R2jSYCaEOOJZMW8350Q==" saltValue="mrWUpOtdd6VsTAymx1hVrA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="43" priority="2">
+    <cfRule type="expression" dxfId="45" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="42" priority="3">
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="4">
+    <cfRule type="expression" dxfId="43" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="40" priority="5">
+    <cfRule type="expression" dxfId="42" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="39" priority="6">
+    <cfRule type="expression" dxfId="41" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="38" priority="7">
+    <cfRule type="expression" dxfId="40" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="39" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="36" priority="9">
+    <cfRule type="expression" dxfId="38" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="35" priority="10">
+    <cfRule type="expression" dxfId="37" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="11">
+    <cfRule type="expression" dxfId="36" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16315,16 +16446,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,12,1)</f>
         <v>42704</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -16335,20 +16466,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -16356,11 +16487,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -16450,7 +16581,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-22.03125</v>
+        <v>-21.6631944444444</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16495,7 +16626,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-22.3645833333333</v>
+        <v>-21.9965277777777</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16540,7 +16671,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.53125</v>
+        <v>-22.1631944444444</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16585,7 +16716,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.8645833333333</v>
+        <v>-22.4965277777777</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16630,7 +16761,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.8645833333333</v>
+        <v>-22.4965277777777</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16675,7 +16806,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.8645833333333</v>
+        <v>-22.4965277777777</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16720,7 +16851,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.8645833333333</v>
+        <v>-22.4965277777777</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16765,7 +16896,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-22.8645833333333</v>
+        <v>-22.4965277777777</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16810,7 +16941,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.1979166666666</v>
+        <v>-22.829861111111001</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16855,7 +16986,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.3645833333333</v>
+        <v>-22.9965277777777</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16900,7 +17031,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.6979166666666</v>
+        <v>-23.329861111111001</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16945,7 +17076,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.6979166666666</v>
+        <v>-23.329861111111001</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -16990,7 +17121,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.6979166666666</v>
+        <v>-23.329861111111001</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17035,7 +17166,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.6979166666666</v>
+        <v>-23.329861111111001</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17080,7 +17211,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-23.6979166666666</v>
+        <v>-23.329861111111001</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17125,7 +17256,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.031249999999901</v>
+        <v>-23.663194444444301</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17170,7 +17301,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.1979166666666</v>
+        <v>-23.829861111111001</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17215,7 +17346,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.531249999999901</v>
+        <v>-24.163194444444301</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17260,7 +17391,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.531249999999901</v>
+        <v>-24.163194444444301</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17305,7 +17436,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.531249999999901</v>
+        <v>-24.163194444444301</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17350,7 +17481,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.531249999999901</v>
+        <v>-24.163194444444301</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17395,7 +17526,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.531249999999901</v>
+        <v>-24.163194444444301</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17440,7 +17571,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.864583333333201</v>
+        <v>-24.496527777777601</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17485,7 +17616,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.947916666666501</v>
+        <v>-24.579861111110901</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17530,7 +17661,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.947916666666501</v>
+        <v>-24.579861111110901</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17575,7 +17706,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.947916666666501</v>
+        <v>-24.579861111110901</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17620,7 +17751,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.947916666666501</v>
+        <v>-24.579861111110901</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17665,7 +17796,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.947916666666501</v>
+        <v>-24.579861111110901</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17710,7 +17841,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-24.947916666666501</v>
+        <v>-24.579861111110901</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17755,7 +17886,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-25.281249999999801</v>
+        <v>-24.913194444444201</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -17800,7 +17931,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-25.364583333333101</v>
+        <v>-24.996527777777501</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -17831,7 +17962,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">November!F40</f>
-        <v>-22.03125</v>
+        <v>-21.6631944444444</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -17840,13 +17971,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -17872,14 +18003,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -17905,13 +18036,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -17930,13 +18061,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!AI2:AI32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -17952,7 +18083,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-25.3645833333333</v>
+        <v>-24.9965277777777</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -17961,13 +18092,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18002,14 +18133,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -18029,14 +18160,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -18060,14 +18191,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -18087,14 +18218,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -18114,14 +18245,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -18145,14 +18276,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -18161,65 +18292,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="cxvY2DkTl/qvreVavAHZQiMD66UcFjhxoXVYD73h1/l0udHUCuS5sptsDftLSlvMcY2XaWQ5B33HtmQ912mInw==" saltValue="5c5gNlRNtYb15QfXriDQfw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="33" priority="2">
+    <cfRule type="expression" dxfId="35" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="32" priority="3">
+    <cfRule type="expression" dxfId="34" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="4">
+    <cfRule type="expression" dxfId="33" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="30" priority="5">
+    <cfRule type="expression" dxfId="32" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="29" priority="6">
+    <cfRule type="expression" dxfId="31" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="28" priority="7">
+    <cfRule type="expression" dxfId="30" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="27" priority="8">
+    <cfRule type="expression" dxfId="29" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="26" priority="9">
+    <cfRule type="expression" dxfId="28" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="25" priority="10">
+    <cfRule type="expression" dxfId="27" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18279,158 +18410,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="399"/>
-      <c r="B1" s="399"/>
-      <c r="C1" s="399"/>
-      <c r="D1" s="399"/>
-      <c r="E1" s="400" t="str">
+      <c r="A1" s="389"/>
+      <c r="B1" s="389"/>
+      <c r="C1" s="389"/>
+      <c r="D1" s="389"/>
+      <c r="E1" s="390" t="str">
         <f>"Jahresübersicht "&amp;Jahr</f>
         <v>Jahresübersicht 2020</v>
       </c>
-      <c r="F1" s="400"/>
-      <c r="G1" s="400"/>
-      <c r="H1" s="400"/>
-      <c r="I1" s="400"/>
-      <c r="J1" s="400"/>
-      <c r="K1" s="400"/>
-      <c r="L1" s="400"/>
-      <c r="M1" s="400"/>
-      <c r="N1" s="400"/>
-      <c r="O1" s="400"/>
-      <c r="P1" s="400"/>
-      <c r="Q1" s="400"/>
-      <c r="R1" s="400"/>
-      <c r="S1" s="400"/>
-      <c r="T1" s="400"/>
-      <c r="U1" s="400"/>
-      <c r="V1" s="400"/>
-      <c r="W1" s="400"/>
-      <c r="X1" s="400"/>
-      <c r="Y1" s="400"/>
-      <c r="Z1" s="400"/>
-      <c r="AA1" s="400"/>
-      <c r="AB1" s="400"/>
-      <c r="AC1" s="400"/>
-      <c r="AD1" s="400"/>
-      <c r="AE1" s="400"/>
-      <c r="AF1" s="400"/>
-      <c r="AG1" s="400"/>
-      <c r="AH1" s="400"/>
-      <c r="AI1" s="401" t="str">
+      <c r="F1" s="390"/>
+      <c r="G1" s="390"/>
+      <c r="H1" s="390"/>
+      <c r="I1" s="390"/>
+      <c r="J1" s="390"/>
+      <c r="K1" s="390"/>
+      <c r="L1" s="390"/>
+      <c r="M1" s="390"/>
+      <c r="N1" s="390"/>
+      <c r="O1" s="390"/>
+      <c r="P1" s="390"/>
+      <c r="Q1" s="390"/>
+      <c r="R1" s="390"/>
+      <c r="S1" s="390"/>
+      <c r="T1" s="390"/>
+      <c r="U1" s="390"/>
+      <c r="V1" s="390"/>
+      <c r="W1" s="390"/>
+      <c r="X1" s="390"/>
+      <c r="Y1" s="390"/>
+      <c r="Z1" s="390"/>
+      <c r="AA1" s="390"/>
+      <c r="AB1" s="390"/>
+      <c r="AC1" s="390"/>
+      <c r="AD1" s="390"/>
+      <c r="AE1" s="390"/>
+      <c r="AF1" s="390"/>
+      <c r="AG1" s="390"/>
+      <c r="AH1" s="390"/>
+      <c r="AI1" s="391" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="AJ1" s="401"/>
-      <c r="AK1" s="401"/>
-      <c r="AL1" s="401"/>
+      <c r="AJ1" s="391"/>
+      <c r="AK1" s="391"/>
+      <c r="AL1" s="391"/>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A2" s="399"/>
-      <c r="B2" s="399"/>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="400"/>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
-      <c r="H2" s="400"/>
-      <c r="I2" s="400"/>
-      <c r="J2" s="400"/>
-      <c r="K2" s="400"/>
-      <c r="L2" s="400"/>
-      <c r="M2" s="400"/>
-      <c r="N2" s="400"/>
-      <c r="O2" s="400"/>
-      <c r="P2" s="400"/>
-      <c r="Q2" s="400"/>
-      <c r="R2" s="400"/>
-      <c r="S2" s="400"/>
-      <c r="T2" s="400"/>
-      <c r="U2" s="400"/>
-      <c r="V2" s="400"/>
-      <c r="W2" s="400"/>
-      <c r="X2" s="400"/>
-      <c r="Y2" s="400"/>
-      <c r="Z2" s="400"/>
-      <c r="AA2" s="400"/>
-      <c r="AB2" s="400"/>
-      <c r="AC2" s="400"/>
-      <c r="AD2" s="400"/>
-      <c r="AE2" s="400"/>
-      <c r="AF2" s="400"/>
-      <c r="AG2" s="400"/>
-      <c r="AH2" s="400"/>
-      <c r="AI2" s="402" t="str">
+      <c r="A2" s="389"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="390"/>
+      <c r="F2" s="390"/>
+      <c r="G2" s="390"/>
+      <c r="H2" s="390"/>
+      <c r="I2" s="390"/>
+      <c r="J2" s="390"/>
+      <c r="K2" s="390"/>
+      <c r="L2" s="390"/>
+      <c r="M2" s="390"/>
+      <c r="N2" s="390"/>
+      <c r="O2" s="390"/>
+      <c r="P2" s="390"/>
+      <c r="Q2" s="390"/>
+      <c r="R2" s="390"/>
+      <c r="S2" s="390"/>
+      <c r="T2" s="390"/>
+      <c r="U2" s="390"/>
+      <c r="V2" s="390"/>
+      <c r="W2" s="390"/>
+      <c r="X2" s="390"/>
+      <c r="Y2" s="390"/>
+      <c r="Z2" s="390"/>
+      <c r="AA2" s="390"/>
+      <c r="AB2" s="390"/>
+      <c r="AC2" s="390"/>
+      <c r="AD2" s="390"/>
+      <c r="AE2" s="390"/>
+      <c r="AF2" s="390"/>
+      <c r="AG2" s="390"/>
+      <c r="AH2" s="390"/>
+      <c r="AI2" s="392" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="AJ2" s="402"/>
-      <c r="AK2" s="402"/>
-      <c r="AL2" s="402"/>
+      <c r="AJ2" s="392"/>
+      <c r="AK2" s="392"/>
+      <c r="AL2" s="392"/>
     </row>
     <row r="3" spans="1:38" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="281" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="403" t="s">
+      <c r="B3" s="393" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="403" t="s">
+      <c r="C3" s="393"/>
+      <c r="D3" s="393"/>
+      <c r="E3" s="393" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="403"/>
-      <c r="G3" s="403"/>
-      <c r="H3" s="403" t="s">
+      <c r="F3" s="393"/>
+      <c r="G3" s="393"/>
+      <c r="H3" s="393" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="403"/>
-      <c r="J3" s="403"/>
-      <c r="K3" s="403" t="s">
+      <c r="I3" s="393"/>
+      <c r="J3" s="393"/>
+      <c r="K3" s="393" t="s">
         <v>132</v>
       </c>
-      <c r="L3" s="403"/>
-      <c r="M3" s="403"/>
-      <c r="N3" s="403" t="s">
+      <c r="L3" s="393"/>
+      <c r="M3" s="393"/>
+      <c r="N3" s="393" t="s">
         <v>133</v>
       </c>
-      <c r="O3" s="403"/>
-      <c r="P3" s="403"/>
-      <c r="Q3" s="403" t="s">
+      <c r="O3" s="393"/>
+      <c r="P3" s="393"/>
+      <c r="Q3" s="393" t="s">
         <v>134</v>
       </c>
-      <c r="R3" s="403"/>
-      <c r="S3" s="403"/>
-      <c r="T3" s="403" t="s">
+      <c r="R3" s="393"/>
+      <c r="S3" s="393"/>
+      <c r="T3" s="393" t="s">
         <v>135</v>
       </c>
-      <c r="U3" s="403"/>
-      <c r="V3" s="403"/>
-      <c r="W3" s="403" t="s">
+      <c r="U3" s="393"/>
+      <c r="V3" s="393"/>
+      <c r="W3" s="393" t="s">
         <v>136</v>
       </c>
-      <c r="X3" s="403"/>
-      <c r="Y3" s="403"/>
-      <c r="Z3" s="403" t="s">
+      <c r="X3" s="393"/>
+      <c r="Y3" s="393"/>
+      <c r="Z3" s="393" t="s">
         <v>137</v>
       </c>
-      <c r="AA3" s="403"/>
-      <c r="AB3" s="403"/>
-      <c r="AC3" s="403" t="s">
+      <c r="AA3" s="393"/>
+      <c r="AB3" s="393"/>
+      <c r="AC3" s="393" t="s">
         <v>138</v>
       </c>
-      <c r="AD3" s="403"/>
-      <c r="AE3" s="403"/>
-      <c r="AF3" s="403" t="s">
+      <c r="AD3" s="393"/>
+      <c r="AE3" s="393"/>
+      <c r="AF3" s="393" t="s">
         <v>139</v>
       </c>
-      <c r="AG3" s="403"/>
-      <c r="AH3" s="403"/>
-      <c r="AI3" s="403" t="s">
+      <c r="AG3" s="393"/>
+      <c r="AH3" s="393"/>
+      <c r="AI3" s="393" t="s">
         <v>140</v>
       </c>
-      <c r="AJ3" s="403"/>
-      <c r="AK3" s="403"/>
+      <c r="AJ3" s="393"/>
+      <c r="AK3" s="393"/>
       <c r="AL3" s="282" t="s">
         <v>95</v>
       </c>
@@ -20315,9 +20446,9 @@
         <f>Mai!A16</f>
         <v>42502</v>
       </c>
-      <c r="O16" s="294" t="str">
+      <c r="O16" s="294">
         <f>IF(Mai!K16&gt;0,Mai!K16,"")</f>
-        <v/>
+        <v>0.36805555555555552</v>
       </c>
       <c r="P16" s="295" t="str">
         <f>IF(OR(Mai!C16="",Mai!J16&lt;&gt;""),UPPER(Mai!J16),"F")</f>
@@ -23151,77 +23282,77 @@
       <c r="A35" s="310" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="395">
+      <c r="B35" s="394">
         <f ca="1">Januar!F37</f>
         <v>0</v>
       </c>
-      <c r="C35" s="395"/>
+      <c r="C35" s="394"/>
       <c r="D35" s="311"/>
-      <c r="E35" s="395">
+      <c r="E35" s="394">
         <f ca="1">Februar!F37</f>
         <v>0</v>
       </c>
-      <c r="F35" s="395"/>
+      <c r="F35" s="394"/>
       <c r="G35" s="312"/>
-      <c r="H35" s="396">
+      <c r="H35" s="395">
         <f ca="1">März!F37</f>
         <v>0</v>
       </c>
-      <c r="I35" s="396"/>
+      <c r="I35" s="395"/>
       <c r="J35" s="313"/>
-      <c r="K35" s="395">
+      <c r="K35" s="394">
         <f ca="1">April!F37</f>
         <v>3.4999999999999991</v>
       </c>
-      <c r="L35" s="395"/>
+      <c r="L35" s="394"/>
       <c r="M35" s="312"/>
-      <c r="N35" s="396">
+      <c r="N35" s="395">
         <f ca="1">Mai!F37</f>
         <v>3.1666666666666652</v>
       </c>
-      <c r="O35" s="396"/>
+      <c r="O35" s="395"/>
       <c r="P35" s="313"/>
-      <c r="Q35" s="395">
+      <c r="Q35" s="394">
         <f ca="1">Juni!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="R35" s="395"/>
+      <c r="R35" s="394"/>
       <c r="S35" s="312"/>
-      <c r="T35" s="396">
+      <c r="T35" s="395">
         <f ca="1">Juli!F37</f>
         <v>4.1666666666666652</v>
       </c>
-      <c r="U35" s="396"/>
+      <c r="U35" s="395"/>
       <c r="V35" s="313"/>
-      <c r="W35" s="395">
+      <c r="W35" s="394">
         <f ca="1">August!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="X35" s="395"/>
+      <c r="X35" s="394"/>
       <c r="Y35" s="312"/>
-      <c r="Z35" s="396">
+      <c r="Z35" s="395">
         <f ca="1">September!F37</f>
         <v>3.6666666666666652</v>
       </c>
-      <c r="AA35" s="396"/>
+      <c r="AA35" s="395"/>
       <c r="AB35" s="313"/>
-      <c r="AC35" s="395">
+      <c r="AC35" s="394">
         <f ca="1">Oktober!F37</f>
         <v>3.8333333333333321</v>
       </c>
-      <c r="AD35" s="395"/>
+      <c r="AD35" s="394"/>
       <c r="AE35" s="312"/>
-      <c r="AF35" s="396">
+      <c r="AF35" s="395">
         <f ca="1">November!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AG35" s="396"/>
+      <c r="AG35" s="395"/>
       <c r="AH35" s="313"/>
-      <c r="AI35" s="395">
+      <c r="AI35" s="394">
         <f ca="1">Dezember!F37</f>
         <v>3.3333333333333321</v>
       </c>
-      <c r="AJ35" s="395"/>
+      <c r="AJ35" s="394"/>
       <c r="AK35" s="312"/>
       <c r="AL35" s="314">
         <f t="shared" ref="AL35:AL49" ca="1" si="0">SUM(B35:AK35)</f>
@@ -23232,243 +23363,243 @@
       <c r="A36" s="315" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="397">
+      <c r="B36" s="396">
         <f>Januar!F38</f>
         <v>0</v>
       </c>
-      <c r="C36" s="397"/>
+      <c r="C36" s="396"/>
       <c r="D36" s="316"/>
-      <c r="E36" s="397">
+      <c r="E36" s="396">
         <f>Februar!F38</f>
         <v>0</v>
       </c>
-      <c r="F36" s="397"/>
+      <c r="F36" s="396"/>
       <c r="G36" s="317"/>
-      <c r="H36" s="398">
+      <c r="H36" s="397">
         <f>März!F38</f>
         <v>0.33333333333333498</v>
       </c>
-      <c r="I36" s="398"/>
+      <c r="I36" s="397"/>
       <c r="J36" s="318"/>
-      <c r="K36" s="397">
+      <c r="K36" s="396">
         <f>April!F38</f>
         <v>4.5625000000000018</v>
       </c>
-      <c r="L36" s="397"/>
+      <c r="L36" s="396"/>
       <c r="M36" s="317"/>
-      <c r="N36" s="398">
+      <c r="N36" s="397">
         <f>Mai!F38</f>
-        <v>1.40625</v>
-      </c>
-      <c r="O36" s="398"/>
+        <v>1.7743055555555556</v>
+      </c>
+      <c r="O36" s="397"/>
       <c r="P36" s="318"/>
-      <c r="Q36" s="397">
+      <c r="Q36" s="396">
         <f>Juni!F38</f>
         <v>0</v>
       </c>
-      <c r="R36" s="397"/>
+      <c r="R36" s="396"/>
       <c r="S36" s="317"/>
-      <c r="T36" s="398">
+      <c r="T36" s="397">
         <f>Juli!F38</f>
         <v>0</v>
       </c>
-      <c r="U36" s="398"/>
+      <c r="U36" s="397"/>
       <c r="V36" s="318"/>
-      <c r="W36" s="397">
+      <c r="W36" s="396">
         <f>August!F38</f>
         <v>0</v>
       </c>
-      <c r="X36" s="397"/>
+      <c r="X36" s="396"/>
       <c r="Y36" s="317"/>
-      <c r="Z36" s="398">
+      <c r="Z36" s="397">
         <f>September!F38</f>
         <v>0</v>
       </c>
-      <c r="AA36" s="398"/>
+      <c r="AA36" s="397"/>
       <c r="AB36" s="318"/>
-      <c r="AC36" s="397">
+      <c r="AC36" s="396">
         <f>Oktober!F38</f>
         <v>0</v>
       </c>
-      <c r="AD36" s="397"/>
+      <c r="AD36" s="396"/>
       <c r="AE36" s="317"/>
-      <c r="AF36" s="398">
+      <c r="AF36" s="397">
         <f>November!F38</f>
         <v>0</v>
       </c>
-      <c r="AG36" s="398"/>
+      <c r="AG36" s="397"/>
       <c r="AH36" s="318"/>
-      <c r="AI36" s="397">
+      <c r="AI36" s="396">
         <f>Dezember!F38</f>
         <v>0</v>
       </c>
-      <c r="AJ36" s="397"/>
+      <c r="AJ36" s="396"/>
       <c r="AK36" s="317"/>
       <c r="AL36" s="319">
         <f t="shared" si="0"/>
-        <v>6.3020833333333366</v>
+        <v>6.6701388888888919</v>
       </c>
     </row>
     <row r="37" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="320" t="s">
         <v>142</v>
       </c>
-      <c r="B37" s="392">
+      <c r="B37" s="398">
         <f ca="1">ROUND(B36-B35,10)</f>
         <v>0</v>
       </c>
-      <c r="C37" s="392"/>
+      <c r="C37" s="398"/>
       <c r="D37" s="321"/>
-      <c r="E37" s="392">
+      <c r="E37" s="398">
         <f ca="1">ROUND(E36-E35,10)</f>
         <v>0</v>
       </c>
-      <c r="F37" s="392"/>
+      <c r="F37" s="398"/>
       <c r="G37" s="322"/>
-      <c r="H37" s="393">
+      <c r="H37" s="399">
         <f ca="1">ROUND(H36-H35,10)</f>
         <v>0.33333333329999998</v>
       </c>
-      <c r="I37" s="393"/>
+      <c r="I37" s="399"/>
       <c r="J37" s="323"/>
-      <c r="K37" s="392">
+      <c r="K37" s="398">
         <f ca="1">ROUND(K36-K35,10)</f>
         <v>1.0625</v>
       </c>
-      <c r="L37" s="392"/>
+      <c r="L37" s="398"/>
       <c r="M37" s="322"/>
-      <c r="N37" s="393">
+      <c r="N37" s="399">
         <f ca="1">ROUND(N36-N35,10)</f>
-        <v>-1.7604166667000001</v>
-      </c>
-      <c r="O37" s="393"/>
+        <v>-1.3923611111</v>
+      </c>
+      <c r="O37" s="399"/>
       <c r="P37" s="323"/>
-      <c r="Q37" s="392">
+      <c r="Q37" s="398">
         <f ca="1">ROUND(Q36-Q35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="R37" s="392"/>
+      <c r="R37" s="398"/>
       <c r="S37" s="322"/>
-      <c r="T37" s="393">
+      <c r="T37" s="399">
         <f ca="1">ROUND(T36-T35,10)</f>
         <v>-4.1666666667000003</v>
       </c>
-      <c r="U37" s="393"/>
+      <c r="U37" s="399"/>
       <c r="V37" s="323"/>
-      <c r="W37" s="392">
+      <c r="W37" s="398">
         <f ca="1">ROUND(W36-W35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="X37" s="392"/>
+      <c r="X37" s="398"/>
       <c r="Y37" s="322"/>
-      <c r="Z37" s="393">
+      <c r="Z37" s="399">
         <f ca="1">ROUND(Z36-Z35,10)</f>
         <v>-3.6666666666999999</v>
       </c>
-      <c r="AA37" s="393"/>
+      <c r="AA37" s="399"/>
       <c r="AB37" s="323"/>
-      <c r="AC37" s="392">
+      <c r="AC37" s="398">
         <f ca="1">ROUND(AC36-AC35,10)</f>
         <v>-3.8333333333000001</v>
       </c>
-      <c r="AD37" s="392"/>
+      <c r="AD37" s="398"/>
       <c r="AE37" s="322"/>
-      <c r="AF37" s="393">
+      <c r="AF37" s="399">
         <f ca="1">ROUND(AF36-AF35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AG37" s="393"/>
+      <c r="AG37" s="399"/>
       <c r="AH37" s="323"/>
-      <c r="AI37" s="392">
+      <c r="AI37" s="398">
         <f ca="1">ROUND(AI36-AI35,10)</f>
         <v>-3.3333333333000001</v>
       </c>
-      <c r="AJ37" s="392"/>
+      <c r="AJ37" s="398"/>
       <c r="AK37" s="322"/>
       <c r="AL37" s="324">
         <f t="shared" ca="1" si="0"/>
-        <v>-25.364583333300001</v>
+        <v>-24.996527777700003</v>
       </c>
     </row>
     <row r="38" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A38" s="325" t="s">
         <v>143</v>
       </c>
-      <c r="B38" s="394">
+      <c r="B38" s="400">
         <f>Januar!J40</f>
         <v>0</v>
       </c>
-      <c r="C38" s="394"/>
-      <c r="D38" s="394"/>
-      <c r="E38" s="394">
+      <c r="C38" s="400"/>
+      <c r="D38" s="400"/>
+      <c r="E38" s="400">
         <f>Februar!J40</f>
         <v>0</v>
       </c>
-      <c r="F38" s="394"/>
-      <c r="G38" s="394"/>
-      <c r="H38" s="394">
+      <c r="F38" s="400"/>
+      <c r="G38" s="400"/>
+      <c r="H38" s="400">
         <f>März!J40</f>
         <v>0</v>
       </c>
-      <c r="I38" s="394"/>
-      <c r="J38" s="394"/>
-      <c r="K38" s="394">
+      <c r="I38" s="400"/>
+      <c r="J38" s="400"/>
+      <c r="K38" s="400">
         <f>April!J40</f>
         <v>6</v>
       </c>
-      <c r="L38" s="394"/>
-      <c r="M38" s="394"/>
-      <c r="N38" s="394">
+      <c r="L38" s="400"/>
+      <c r="M38" s="400"/>
+      <c r="N38" s="400">
         <f>Mai!J40</f>
-        <v>6</v>
-      </c>
-      <c r="O38" s="394"/>
-      <c r="P38" s="394"/>
-      <c r="Q38" s="394">
+        <v>7</v>
+      </c>
+      <c r="O38" s="400"/>
+      <c r="P38" s="400"/>
+      <c r="Q38" s="400">
         <f>Juni!J40</f>
         <v>0</v>
       </c>
-      <c r="R38" s="394"/>
-      <c r="S38" s="394"/>
-      <c r="T38" s="394">
+      <c r="R38" s="400"/>
+      <c r="S38" s="400"/>
+      <c r="T38" s="400">
         <f>Juli!J40</f>
         <v>0</v>
       </c>
-      <c r="U38" s="394"/>
-      <c r="V38" s="394"/>
-      <c r="W38" s="394">
+      <c r="U38" s="400"/>
+      <c r="V38" s="400"/>
+      <c r="W38" s="400">
         <f>August!J40</f>
         <v>0</v>
       </c>
-      <c r="X38" s="394"/>
-      <c r="Y38" s="394"/>
-      <c r="Z38" s="394">
+      <c r="X38" s="400"/>
+      <c r="Y38" s="400"/>
+      <c r="Z38" s="400">
         <f>September!J40</f>
         <v>0</v>
       </c>
-      <c r="AA38" s="394"/>
-      <c r="AB38" s="394"/>
-      <c r="AC38" s="394">
+      <c r="AA38" s="400"/>
+      <c r="AB38" s="400"/>
+      <c r="AC38" s="400">
         <f>Oktober!J40</f>
         <v>0</v>
       </c>
-      <c r="AD38" s="394"/>
-      <c r="AE38" s="394"/>
-      <c r="AF38" s="394">
+      <c r="AD38" s="400"/>
+      <c r="AE38" s="400"/>
+      <c r="AF38" s="400">
         <f>November!J40</f>
         <v>0</v>
       </c>
-      <c r="AG38" s="394"/>
-      <c r="AH38" s="394"/>
-      <c r="AI38" s="394">
+      <c r="AG38" s="400"/>
+      <c r="AH38" s="400"/>
+      <c r="AI38" s="400">
         <f>Dezember!J40</f>
         <v>0</v>
       </c>
-      <c r="AJ38" s="394"/>
-      <c r="AK38" s="394"/>
+      <c r="AJ38" s="400"/>
+      <c r="AK38" s="400"/>
       <c r="AL38" s="326">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:38" x14ac:dyDescent="0.25">
@@ -23476,78 +23607,78 @@
         <f>Voreinstellungen!A20&amp;" ("&amp;Voreinstellungen!B20&amp;")"</f>
         <v>Gleittag (G)</v>
       </c>
-      <c r="B39" s="390">
+      <c r="B39" s="401">
         <f>Januar!J38</f>
         <v>0</v>
       </c>
-      <c r="C39" s="390"/>
-      <c r="D39" s="390"/>
-      <c r="E39" s="390">
+      <c r="C39" s="401"/>
+      <c r="D39" s="401"/>
+      <c r="E39" s="401">
         <f>Februar!J38</f>
         <v>0</v>
       </c>
-      <c r="F39" s="390"/>
-      <c r="G39" s="390"/>
-      <c r="H39" s="390">
+      <c r="F39" s="401"/>
+      <c r="G39" s="401"/>
+      <c r="H39" s="401">
         <f>März!J38</f>
         <v>0</v>
       </c>
-      <c r="I39" s="390"/>
-      <c r="J39" s="390"/>
-      <c r="K39" s="390">
+      <c r="I39" s="401"/>
+      <c r="J39" s="401"/>
+      <c r="K39" s="401">
         <f>April!J38</f>
         <v>0</v>
       </c>
-      <c r="L39" s="390"/>
-      <c r="M39" s="390"/>
-      <c r="N39" s="390">
+      <c r="L39" s="401"/>
+      <c r="M39" s="401"/>
+      <c r="N39" s="401">
         <f>Mai!J38</f>
         <v>0</v>
       </c>
-      <c r="O39" s="390"/>
-      <c r="P39" s="390"/>
-      <c r="Q39" s="390">
+      <c r="O39" s="401"/>
+      <c r="P39" s="401"/>
+      <c r="Q39" s="401">
         <f>Juni!J38</f>
         <v>0</v>
       </c>
-      <c r="R39" s="390"/>
-      <c r="S39" s="390"/>
-      <c r="T39" s="390">
+      <c r="R39" s="401"/>
+      <c r="S39" s="401"/>
+      <c r="T39" s="401">
         <f>Juli!J38</f>
         <v>0</v>
       </c>
-      <c r="U39" s="390"/>
-      <c r="V39" s="390"/>
-      <c r="W39" s="390">
+      <c r="U39" s="401"/>
+      <c r="V39" s="401"/>
+      <c r="W39" s="401">
         <f>August!J38</f>
         <v>0</v>
       </c>
-      <c r="X39" s="390"/>
-      <c r="Y39" s="390"/>
-      <c r="Z39" s="390">
+      <c r="X39" s="401"/>
+      <c r="Y39" s="401"/>
+      <c r="Z39" s="401">
         <f>September!J38</f>
         <v>0</v>
       </c>
-      <c r="AA39" s="390"/>
-      <c r="AB39" s="390"/>
-      <c r="AC39" s="390">
+      <c r="AA39" s="401"/>
+      <c r="AB39" s="401"/>
+      <c r="AC39" s="401">
         <f>Oktober!J38</f>
         <v>0</v>
       </c>
-      <c r="AD39" s="390"/>
-      <c r="AE39" s="390"/>
-      <c r="AF39" s="390">
+      <c r="AD39" s="401"/>
+      <c r="AE39" s="401"/>
+      <c r="AF39" s="401">
         <f>November!J38</f>
         <v>0</v>
       </c>
-      <c r="AG39" s="390"/>
-      <c r="AH39" s="390"/>
-      <c r="AI39" s="390">
+      <c r="AG39" s="401"/>
+      <c r="AH39" s="401"/>
+      <c r="AI39" s="401">
         <f>Dezember!J38</f>
         <v>0</v>
       </c>
-      <c r="AJ39" s="390"/>
-      <c r="AK39" s="390"/>
+      <c r="AJ39" s="401"/>
+      <c r="AK39" s="401"/>
       <c r="AL39" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23558,78 +23689,78 @@
         <f>Voreinstellungen!A21&amp;" ("&amp;Voreinstellungen!B21&amp;")"&amp;"/("&amp;Voreinstellungen!B22&amp;")"</f>
         <v>Krank (K)/(KR)</v>
       </c>
-      <c r="B40" s="390">
+      <c r="B40" s="401">
         <f>Januar!J36</f>
         <v>0</v>
       </c>
-      <c r="C40" s="390"/>
-      <c r="D40" s="390"/>
-      <c r="E40" s="390">
+      <c r="C40" s="401"/>
+      <c r="D40" s="401"/>
+      <c r="E40" s="401">
         <f>Februar!J36</f>
         <v>0</v>
       </c>
-      <c r="F40" s="390"/>
-      <c r="G40" s="390"/>
-      <c r="H40" s="390">
+      <c r="F40" s="401"/>
+      <c r="G40" s="401"/>
+      <c r="H40" s="401">
         <f>März!J36</f>
         <v>0</v>
       </c>
-      <c r="I40" s="390"/>
-      <c r="J40" s="390"/>
-      <c r="K40" s="390">
+      <c r="I40" s="401"/>
+      <c r="J40" s="401"/>
+      <c r="K40" s="401">
         <f>April!J36</f>
         <v>0</v>
       </c>
-      <c r="L40" s="390"/>
-      <c r="M40" s="390"/>
-      <c r="N40" s="390">
+      <c r="L40" s="401"/>
+      <c r="M40" s="401"/>
+      <c r="N40" s="401">
         <f>Mai!J36</f>
         <v>0</v>
       </c>
-      <c r="O40" s="390"/>
-      <c r="P40" s="390"/>
-      <c r="Q40" s="390">
+      <c r="O40" s="401"/>
+      <c r="P40" s="401"/>
+      <c r="Q40" s="401">
         <f>Juni!J36</f>
         <v>0</v>
       </c>
-      <c r="R40" s="390"/>
-      <c r="S40" s="390"/>
-      <c r="T40" s="390">
+      <c r="R40" s="401"/>
+      <c r="S40" s="401"/>
+      <c r="T40" s="401">
         <f>Juli!J36</f>
         <v>0</v>
       </c>
-      <c r="U40" s="390"/>
-      <c r="V40" s="390"/>
-      <c r="W40" s="390">
+      <c r="U40" s="401"/>
+      <c r="V40" s="401"/>
+      <c r="W40" s="401">
         <f>August!J36</f>
         <v>0</v>
       </c>
-      <c r="X40" s="390"/>
-      <c r="Y40" s="390"/>
-      <c r="Z40" s="390">
+      <c r="X40" s="401"/>
+      <c r="Y40" s="401"/>
+      <c r="Z40" s="401">
         <f>September!J36</f>
         <v>0</v>
       </c>
-      <c r="AA40" s="390"/>
-      <c r="AB40" s="390"/>
-      <c r="AC40" s="390">
+      <c r="AA40" s="401"/>
+      <c r="AB40" s="401"/>
+      <c r="AC40" s="401">
         <f>Oktober!J36</f>
         <v>0</v>
       </c>
-      <c r="AD40" s="390"/>
-      <c r="AE40" s="390"/>
-      <c r="AF40" s="390">
+      <c r="AD40" s="401"/>
+      <c r="AE40" s="401"/>
+      <c r="AF40" s="401">
         <f>November!J36</f>
         <v>0</v>
       </c>
-      <c r="AG40" s="390"/>
-      <c r="AH40" s="390"/>
-      <c r="AI40" s="390">
+      <c r="AG40" s="401"/>
+      <c r="AH40" s="401"/>
+      <c r="AI40" s="401">
         <f>Dezember!J36</f>
         <v>0</v>
       </c>
-      <c r="AJ40" s="390"/>
-      <c r="AK40" s="390"/>
+      <c r="AJ40" s="401"/>
+      <c r="AK40" s="401"/>
       <c r="AL40" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23640,78 +23771,78 @@
         <f>Voreinstellungen!A23&amp;" ("&amp;Voreinstellungen!B23&amp;")"&amp;"/("&amp;Voreinstellungen!B24&amp;")"</f>
         <v>Kurzarbeit (KU)/(KA)</v>
       </c>
-      <c r="B41" s="390">
+      <c r="B41" s="401">
         <f>Januar!J39</f>
         <v>0</v>
       </c>
-      <c r="C41" s="390"/>
-      <c r="D41" s="390"/>
-      <c r="E41" s="390">
+      <c r="C41" s="401"/>
+      <c r="D41" s="401"/>
+      <c r="E41" s="401">
         <f>Februar!J39</f>
         <v>0</v>
       </c>
-      <c r="F41" s="390"/>
-      <c r="G41" s="390"/>
-      <c r="H41" s="390">
+      <c r="F41" s="401"/>
+      <c r="G41" s="401"/>
+      <c r="H41" s="401">
         <f>März!J39</f>
         <v>0</v>
       </c>
-      <c r="I41" s="390"/>
-      <c r="J41" s="390"/>
-      <c r="K41" s="390">
+      <c r="I41" s="401"/>
+      <c r="J41" s="401"/>
+      <c r="K41" s="401">
         <f>April!J39</f>
         <v>0</v>
       </c>
-      <c r="L41" s="390"/>
-      <c r="M41" s="390"/>
-      <c r="N41" s="390">
+      <c r="L41" s="401"/>
+      <c r="M41" s="401"/>
+      <c r="N41" s="401">
         <f>Mai!J39</f>
         <v>0</v>
       </c>
-      <c r="O41" s="390"/>
-      <c r="P41" s="390"/>
-      <c r="Q41" s="390">
+      <c r="O41" s="401"/>
+      <c r="P41" s="401"/>
+      <c r="Q41" s="401">
         <f>Juni!J39</f>
         <v>0</v>
       </c>
-      <c r="R41" s="390"/>
-      <c r="S41" s="390"/>
-      <c r="T41" s="390">
+      <c r="R41" s="401"/>
+      <c r="S41" s="401"/>
+      <c r="T41" s="401">
         <f>Juli!J39</f>
         <v>0</v>
       </c>
-      <c r="U41" s="390"/>
-      <c r="V41" s="390"/>
-      <c r="W41" s="390">
+      <c r="U41" s="401"/>
+      <c r="V41" s="401"/>
+      <c r="W41" s="401">
         <f>August!J39</f>
         <v>0</v>
       </c>
-      <c r="X41" s="390"/>
-      <c r="Y41" s="390"/>
-      <c r="Z41" s="390">
+      <c r="X41" s="401"/>
+      <c r="Y41" s="401"/>
+      <c r="Z41" s="401">
         <f>September!J39</f>
         <v>0</v>
       </c>
-      <c r="AA41" s="390"/>
-      <c r="AB41" s="390"/>
-      <c r="AC41" s="390">
+      <c r="AA41" s="401"/>
+      <c r="AB41" s="401"/>
+      <c r="AC41" s="401">
         <f>Oktober!J39</f>
         <v>0</v>
       </c>
-      <c r="AD41" s="390"/>
-      <c r="AE41" s="390"/>
-      <c r="AF41" s="390">
+      <c r="AD41" s="401"/>
+      <c r="AE41" s="401"/>
+      <c r="AF41" s="401">
         <f>November!J39</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="390"/>
-      <c r="AH41" s="390"/>
-      <c r="AI41" s="390">
+      <c r="AG41" s="401"/>
+      <c r="AH41" s="401"/>
+      <c r="AI41" s="401">
         <f>Dezember!J39</f>
         <v>0</v>
       </c>
-      <c r="AJ41" s="390"/>
-      <c r="AK41" s="390"/>
+      <c r="AJ41" s="401"/>
+      <c r="AK41" s="401"/>
       <c r="AL41" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23722,78 +23853,78 @@
         <f>Voreinstellungen!A25&amp;" ("&amp;Voreinstellungen!B25&amp;")"&amp;"/("&amp;Voreinstellungen!B26&amp;")"</f>
         <v>Urlaub (U)/(UH)</v>
       </c>
-      <c r="B42" s="390">
+      <c r="B42" s="401">
         <f>Januar!J37</f>
         <v>0</v>
       </c>
-      <c r="C42" s="390"/>
-      <c r="D42" s="390"/>
-      <c r="E42" s="390">
+      <c r="C42" s="401"/>
+      <c r="D42" s="401"/>
+      <c r="E42" s="401">
         <f>Februar!J37</f>
         <v>0</v>
       </c>
-      <c r="F42" s="390"/>
-      <c r="G42" s="390"/>
-      <c r="H42" s="390">
+      <c r="F42" s="401"/>
+      <c r="G42" s="401"/>
+      <c r="H42" s="401">
         <f>März!J37</f>
         <v>0</v>
       </c>
-      <c r="I42" s="390"/>
-      <c r="J42" s="390"/>
-      <c r="K42" s="390">
+      <c r="I42" s="401"/>
+      <c r="J42" s="401"/>
+      <c r="K42" s="401">
         <f>April!J37</f>
         <v>0</v>
       </c>
-      <c r="L42" s="390"/>
-      <c r="M42" s="390"/>
-      <c r="N42" s="390">
+      <c r="L42" s="401"/>
+      <c r="M42" s="401"/>
+      <c r="N42" s="401">
         <f>Mai!J37</f>
         <v>0</v>
       </c>
-      <c r="O42" s="390"/>
-      <c r="P42" s="390"/>
-      <c r="Q42" s="390">
+      <c r="O42" s="401"/>
+      <c r="P42" s="401"/>
+      <c r="Q42" s="401">
         <f>Juni!J37</f>
         <v>0</v>
       </c>
-      <c r="R42" s="390"/>
-      <c r="S42" s="390"/>
-      <c r="T42" s="390">
+      <c r="R42" s="401"/>
+      <c r="S42" s="401"/>
+      <c r="T42" s="401">
         <f>Juli!J37</f>
         <v>0</v>
       </c>
-      <c r="U42" s="390"/>
-      <c r="V42" s="390"/>
-      <c r="W42" s="390">
+      <c r="U42" s="401"/>
+      <c r="V42" s="401"/>
+      <c r="W42" s="401">
         <f>August!J37</f>
         <v>0</v>
       </c>
-      <c r="X42" s="390"/>
-      <c r="Y42" s="390"/>
-      <c r="Z42" s="390">
+      <c r="X42" s="401"/>
+      <c r="Y42" s="401"/>
+      <c r="Z42" s="401">
         <f>September!J37</f>
         <v>0</v>
       </c>
-      <c r="AA42" s="390"/>
-      <c r="AB42" s="390"/>
-      <c r="AC42" s="390">
+      <c r="AA42" s="401"/>
+      <c r="AB42" s="401"/>
+      <c r="AC42" s="401">
         <f>Oktober!J37</f>
         <v>0</v>
       </c>
-      <c r="AD42" s="390"/>
-      <c r="AE42" s="390"/>
-      <c r="AF42" s="390">
+      <c r="AD42" s="401"/>
+      <c r="AE42" s="401"/>
+      <c r="AF42" s="401">
         <f>November!J37</f>
         <v>0</v>
       </c>
-      <c r="AG42" s="390"/>
-      <c r="AH42" s="390"/>
-      <c r="AI42" s="390">
+      <c r="AG42" s="401"/>
+      <c r="AH42" s="401"/>
+      <c r="AI42" s="401">
         <f>Dezember!J37</f>
         <v>0</v>
       </c>
-      <c r="AJ42" s="390"/>
-      <c r="AK42" s="390"/>
+      <c r="AJ42" s="401"/>
+      <c r="AK42" s="401"/>
       <c r="AL42" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23804,78 +23935,78 @@
         <f>IF(Voreinstellungen!A28="","",Voreinstellungen!A28&amp;" ("&amp;Voreinstellungen!B28&amp;")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="B43" s="390">
+      <c r="B43" s="401">
         <f>Januar!J42</f>
         <v>0</v>
       </c>
-      <c r="C43" s="390"/>
-      <c r="D43" s="390"/>
-      <c r="E43" s="390">
+      <c r="C43" s="401"/>
+      <c r="D43" s="401"/>
+      <c r="E43" s="401">
         <f>Februar!J42</f>
         <v>0</v>
       </c>
-      <c r="F43" s="390"/>
-      <c r="G43" s="390"/>
-      <c r="H43" s="390">
+      <c r="F43" s="401"/>
+      <c r="G43" s="401"/>
+      <c r="H43" s="401">
         <f>März!J42</f>
         <v>0</v>
       </c>
-      <c r="I43" s="390"/>
-      <c r="J43" s="390"/>
-      <c r="K43" s="390">
+      <c r="I43" s="401"/>
+      <c r="J43" s="401"/>
+      <c r="K43" s="401">
         <f>April!J42</f>
         <v>0</v>
       </c>
-      <c r="L43" s="390"/>
-      <c r="M43" s="390"/>
-      <c r="N43" s="390">
+      <c r="L43" s="401"/>
+      <c r="M43" s="401"/>
+      <c r="N43" s="401">
         <f>Mai!J42</f>
         <v>0</v>
       </c>
-      <c r="O43" s="390"/>
-      <c r="P43" s="390"/>
-      <c r="Q43" s="390">
+      <c r="O43" s="401"/>
+      <c r="P43" s="401"/>
+      <c r="Q43" s="401">
         <f>Juni!J42</f>
         <v>0</v>
       </c>
-      <c r="R43" s="390"/>
-      <c r="S43" s="390"/>
-      <c r="T43" s="390">
+      <c r="R43" s="401"/>
+      <c r="S43" s="401"/>
+      <c r="T43" s="401">
         <f>Juli!J42</f>
         <v>0</v>
       </c>
-      <c r="U43" s="390"/>
-      <c r="V43" s="390"/>
-      <c r="W43" s="390">
+      <c r="U43" s="401"/>
+      <c r="V43" s="401"/>
+      <c r="W43" s="401">
         <f>August!J42</f>
         <v>0</v>
       </c>
-      <c r="X43" s="390"/>
-      <c r="Y43" s="390"/>
-      <c r="Z43" s="390">
+      <c r="X43" s="401"/>
+      <c r="Y43" s="401"/>
+      <c r="Z43" s="401">
         <f>September!J42</f>
         <v>0</v>
       </c>
-      <c r="AA43" s="390"/>
-      <c r="AB43" s="390"/>
-      <c r="AC43" s="390">
+      <c r="AA43" s="401"/>
+      <c r="AB43" s="401"/>
+      <c r="AC43" s="401">
         <f>Oktober!J42</f>
         <v>0</v>
       </c>
-      <c r="AD43" s="390"/>
-      <c r="AE43" s="390"/>
-      <c r="AF43" s="390">
+      <c r="AD43" s="401"/>
+      <c r="AE43" s="401"/>
+      <c r="AF43" s="401">
         <f>November!J42</f>
         <v>0</v>
       </c>
-      <c r="AG43" s="390"/>
-      <c r="AH43" s="390"/>
-      <c r="AI43" s="390">
+      <c r="AG43" s="401"/>
+      <c r="AH43" s="401"/>
+      <c r="AI43" s="401">
         <f>Dezember!J42</f>
         <v>0</v>
       </c>
-      <c r="AJ43" s="390"/>
-      <c r="AK43" s="390"/>
+      <c r="AJ43" s="401"/>
+      <c r="AK43" s="401"/>
       <c r="AL43" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23886,78 +24017,78 @@
         <f>IF(Voreinstellungen!A29="","",Voreinstellungen!A29&amp;" ("&amp;Voreinstellungen!B29&amp;")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="B44" s="390" t="str">
+      <c r="B44" s="401" t="str">
         <f>Januar!J43</f>
         <v/>
       </c>
-      <c r="C44" s="390"/>
-      <c r="D44" s="390"/>
-      <c r="E44" s="390" t="str">
+      <c r="C44" s="401"/>
+      <c r="D44" s="401"/>
+      <c r="E44" s="401" t="str">
         <f>Februar!J43</f>
         <v/>
       </c>
-      <c r="F44" s="390"/>
-      <c r="G44" s="390"/>
-      <c r="H44" s="390" t="str">
+      <c r="F44" s="401"/>
+      <c r="G44" s="401"/>
+      <c r="H44" s="401" t="str">
         <f>März!J43</f>
         <v/>
       </c>
-      <c r="I44" s="390"/>
-      <c r="J44" s="390"/>
-      <c r="K44" s="390" t="str">
+      <c r="I44" s="401"/>
+      <c r="J44" s="401"/>
+      <c r="K44" s="401" t="str">
         <f>April!J43</f>
         <v/>
       </c>
-      <c r="L44" s="390"/>
-      <c r="M44" s="390"/>
-      <c r="N44" s="390" t="str">
+      <c r="L44" s="401"/>
+      <c r="M44" s="401"/>
+      <c r="N44" s="401" t="str">
         <f>Mai!J43</f>
         <v/>
       </c>
-      <c r="O44" s="390"/>
-      <c r="P44" s="390"/>
-      <c r="Q44" s="390" t="str">
+      <c r="O44" s="401"/>
+      <c r="P44" s="401"/>
+      <c r="Q44" s="401" t="str">
         <f>Juni!J43</f>
         <v/>
       </c>
-      <c r="R44" s="390"/>
-      <c r="S44" s="390"/>
-      <c r="T44" s="390" t="str">
+      <c r="R44" s="401"/>
+      <c r="S44" s="401"/>
+      <c r="T44" s="401" t="str">
         <f>Juli!J43</f>
         <v/>
       </c>
-      <c r="U44" s="390"/>
-      <c r="V44" s="390"/>
-      <c r="W44" s="390" t="str">
+      <c r="U44" s="401"/>
+      <c r="V44" s="401"/>
+      <c r="W44" s="401" t="str">
         <f>August!J43</f>
         <v/>
       </c>
-      <c r="X44" s="390"/>
-      <c r="Y44" s="390"/>
-      <c r="Z44" s="390" t="str">
+      <c r="X44" s="401"/>
+      <c r="Y44" s="401"/>
+      <c r="Z44" s="401" t="str">
         <f>September!J43</f>
         <v/>
       </c>
-      <c r="AA44" s="390"/>
-      <c r="AB44" s="390"/>
-      <c r="AC44" s="390" t="str">
+      <c r="AA44" s="401"/>
+      <c r="AB44" s="401"/>
+      <c r="AC44" s="401" t="str">
         <f>Oktober!J43</f>
         <v/>
       </c>
-      <c r="AD44" s="390"/>
-      <c r="AE44" s="390"/>
-      <c r="AF44" s="390" t="str">
+      <c r="AD44" s="401"/>
+      <c r="AE44" s="401"/>
+      <c r="AF44" s="401" t="str">
         <f>November!J43</f>
         <v/>
       </c>
-      <c r="AG44" s="390"/>
-      <c r="AH44" s="390"/>
-      <c r="AI44" s="390" t="str">
+      <c r="AG44" s="401"/>
+      <c r="AH44" s="401"/>
+      <c r="AI44" s="401" t="str">
         <f>Dezember!J43</f>
         <v/>
       </c>
-      <c r="AJ44" s="390"/>
-      <c r="AK44" s="390"/>
+      <c r="AJ44" s="401"/>
+      <c r="AK44" s="401"/>
       <c r="AL44" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -23968,78 +24099,78 @@
         <f>IF(Voreinstellungen!A30="","",Voreinstellungen!A30&amp;" ("&amp;Voreinstellungen!B30&amp;")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="B45" s="390" t="str">
+      <c r="B45" s="401" t="str">
         <f>Januar!J44</f>
         <v/>
       </c>
-      <c r="C45" s="390"/>
-      <c r="D45" s="390"/>
-      <c r="E45" s="390" t="str">
+      <c r="C45" s="401"/>
+      <c r="D45" s="401"/>
+      <c r="E45" s="401" t="str">
         <f>Februar!J44</f>
         <v/>
       </c>
-      <c r="F45" s="390"/>
-      <c r="G45" s="390"/>
-      <c r="H45" s="390" t="str">
+      <c r="F45" s="401"/>
+      <c r="G45" s="401"/>
+      <c r="H45" s="401" t="str">
         <f>März!J44</f>
         <v/>
       </c>
-      <c r="I45" s="390"/>
-      <c r="J45" s="390"/>
-      <c r="K45" s="390" t="str">
+      <c r="I45" s="401"/>
+      <c r="J45" s="401"/>
+      <c r="K45" s="401" t="str">
         <f>April!J44</f>
         <v/>
       </c>
-      <c r="L45" s="390"/>
-      <c r="M45" s="390"/>
-      <c r="N45" s="390" t="str">
+      <c r="L45" s="401"/>
+      <c r="M45" s="401"/>
+      <c r="N45" s="401" t="str">
         <f>Mai!J44</f>
         <v/>
       </c>
-      <c r="O45" s="390"/>
-      <c r="P45" s="390"/>
-      <c r="Q45" s="390" t="str">
+      <c r="O45" s="401"/>
+      <c r="P45" s="401"/>
+      <c r="Q45" s="401" t="str">
         <f>Juni!J44</f>
         <v/>
       </c>
-      <c r="R45" s="390"/>
-      <c r="S45" s="390"/>
-      <c r="T45" s="390" t="str">
+      <c r="R45" s="401"/>
+      <c r="S45" s="401"/>
+      <c r="T45" s="401" t="str">
         <f>Juli!J44</f>
         <v/>
       </c>
-      <c r="U45" s="390"/>
-      <c r="V45" s="390"/>
-      <c r="W45" s="390" t="str">
+      <c r="U45" s="401"/>
+      <c r="V45" s="401"/>
+      <c r="W45" s="401" t="str">
         <f>August!J44</f>
         <v/>
       </c>
-      <c r="X45" s="390"/>
-      <c r="Y45" s="390"/>
-      <c r="Z45" s="390" t="str">
+      <c r="X45" s="401"/>
+      <c r="Y45" s="401"/>
+      <c r="Z45" s="401" t="str">
         <f>September!J44</f>
         <v/>
       </c>
-      <c r="AA45" s="390"/>
-      <c r="AB45" s="390"/>
-      <c r="AC45" s="390" t="str">
+      <c r="AA45" s="401"/>
+      <c r="AB45" s="401"/>
+      <c r="AC45" s="401" t="str">
         <f>Oktober!J44</f>
         <v/>
       </c>
-      <c r="AD45" s="390"/>
-      <c r="AE45" s="390"/>
-      <c r="AF45" s="390" t="str">
+      <c r="AD45" s="401"/>
+      <c r="AE45" s="401"/>
+      <c r="AF45" s="401" t="str">
         <f>November!J44</f>
         <v/>
       </c>
-      <c r="AG45" s="390"/>
-      <c r="AH45" s="390"/>
-      <c r="AI45" s="390" t="str">
+      <c r="AG45" s="401"/>
+      <c r="AH45" s="401"/>
+      <c r="AI45" s="401" t="str">
         <f>Dezember!J44</f>
         <v/>
       </c>
-      <c r="AJ45" s="390"/>
-      <c r="AK45" s="390"/>
+      <c r="AJ45" s="401"/>
+      <c r="AK45" s="401"/>
       <c r="AL45" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24050,78 +24181,78 @@
         <f>IF(Voreinstellungen!A31="","",Voreinstellungen!A31&amp;" ("&amp;Voreinstellungen!B31&amp;")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="B46" s="390" t="str">
+      <c r="B46" s="401" t="str">
         <f>Januar!J45</f>
         <v/>
       </c>
-      <c r="C46" s="390"/>
-      <c r="D46" s="390"/>
-      <c r="E46" s="390" t="str">
+      <c r="C46" s="401"/>
+      <c r="D46" s="401"/>
+      <c r="E46" s="401" t="str">
         <f>Februar!J45</f>
         <v/>
       </c>
-      <c r="F46" s="390"/>
-      <c r="G46" s="390"/>
-      <c r="H46" s="390" t="str">
+      <c r="F46" s="401"/>
+      <c r="G46" s="401"/>
+      <c r="H46" s="401" t="str">
         <f>März!J45</f>
         <v/>
       </c>
-      <c r="I46" s="390"/>
-      <c r="J46" s="390"/>
-      <c r="K46" s="390" t="str">
+      <c r="I46" s="401"/>
+      <c r="J46" s="401"/>
+      <c r="K46" s="401" t="str">
         <f>April!J45</f>
         <v/>
       </c>
-      <c r="L46" s="390"/>
-      <c r="M46" s="390"/>
-      <c r="N46" s="390" t="str">
+      <c r="L46" s="401"/>
+      <c r="M46" s="401"/>
+      <c r="N46" s="401" t="str">
         <f>Mai!J45</f>
         <v/>
       </c>
-      <c r="O46" s="390"/>
-      <c r="P46" s="390"/>
-      <c r="Q46" s="390" t="str">
+      <c r="O46" s="401"/>
+      <c r="P46" s="401"/>
+      <c r="Q46" s="401" t="str">
         <f>Juni!J45</f>
         <v/>
       </c>
-      <c r="R46" s="390"/>
-      <c r="S46" s="390"/>
-      <c r="T46" s="390" t="str">
+      <c r="R46" s="401"/>
+      <c r="S46" s="401"/>
+      <c r="T46" s="401" t="str">
         <f>Juli!J45</f>
         <v/>
       </c>
-      <c r="U46" s="390"/>
-      <c r="V46" s="390"/>
-      <c r="W46" s="390" t="str">
+      <c r="U46" s="401"/>
+      <c r="V46" s="401"/>
+      <c r="W46" s="401" t="str">
         <f>August!J45</f>
         <v/>
       </c>
-      <c r="X46" s="390"/>
-      <c r="Y46" s="390"/>
-      <c r="Z46" s="390" t="str">
+      <c r="X46" s="401"/>
+      <c r="Y46" s="401"/>
+      <c r="Z46" s="401" t="str">
         <f>September!J45</f>
         <v/>
       </c>
-      <c r="AA46" s="390"/>
-      <c r="AB46" s="390"/>
-      <c r="AC46" s="390" t="str">
+      <c r="AA46" s="401"/>
+      <c r="AB46" s="401"/>
+      <c r="AC46" s="401" t="str">
         <f>Oktober!J45</f>
         <v/>
       </c>
-      <c r="AD46" s="390"/>
-      <c r="AE46" s="390"/>
-      <c r="AF46" s="390" t="str">
+      <c r="AD46" s="401"/>
+      <c r="AE46" s="401"/>
+      <c r="AF46" s="401" t="str">
         <f>November!J45</f>
         <v/>
       </c>
-      <c r="AG46" s="390"/>
-      <c r="AH46" s="390"/>
-      <c r="AI46" s="390" t="str">
+      <c r="AG46" s="401"/>
+      <c r="AH46" s="401"/>
+      <c r="AI46" s="401" t="str">
         <f>Dezember!J45</f>
         <v/>
       </c>
-      <c r="AJ46" s="390"/>
-      <c r="AK46" s="390"/>
+      <c r="AJ46" s="401"/>
+      <c r="AK46" s="401"/>
       <c r="AL46" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24132,78 +24263,78 @@
         <f>IF(Voreinstellungen!A32="","",Voreinstellungen!A32&amp;" ("&amp;Voreinstellungen!B32&amp;")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="B47" s="390" t="str">
+      <c r="B47" s="401" t="str">
         <f>Januar!J46</f>
         <v/>
       </c>
-      <c r="C47" s="390"/>
-      <c r="D47" s="390"/>
-      <c r="E47" s="390" t="str">
+      <c r="C47" s="401"/>
+      <c r="D47" s="401"/>
+      <c r="E47" s="401" t="str">
         <f>Februar!J46</f>
         <v/>
       </c>
-      <c r="F47" s="390"/>
-      <c r="G47" s="390"/>
-      <c r="H47" s="390" t="str">
+      <c r="F47" s="401"/>
+      <c r="G47" s="401"/>
+      <c r="H47" s="401" t="str">
         <f>März!J46</f>
         <v/>
       </c>
-      <c r="I47" s="390"/>
-      <c r="J47" s="390"/>
-      <c r="K47" s="390" t="str">
+      <c r="I47" s="401"/>
+      <c r="J47" s="401"/>
+      <c r="K47" s="401" t="str">
         <f>April!J46</f>
         <v/>
       </c>
-      <c r="L47" s="390"/>
-      <c r="M47" s="390"/>
-      <c r="N47" s="390" t="str">
+      <c r="L47" s="401"/>
+      <c r="M47" s="401"/>
+      <c r="N47" s="401" t="str">
         <f>Mai!J46</f>
         <v/>
       </c>
-      <c r="O47" s="390"/>
-      <c r="P47" s="390"/>
-      <c r="Q47" s="390" t="str">
+      <c r="O47" s="401"/>
+      <c r="P47" s="401"/>
+      <c r="Q47" s="401" t="str">
         <f>Juni!J46</f>
         <v/>
       </c>
-      <c r="R47" s="390"/>
-      <c r="S47" s="390"/>
-      <c r="T47" s="390" t="str">
+      <c r="R47" s="401"/>
+      <c r="S47" s="401"/>
+      <c r="T47" s="401" t="str">
         <f>Juli!J46</f>
         <v/>
       </c>
-      <c r="U47" s="390"/>
-      <c r="V47" s="390"/>
-      <c r="W47" s="390" t="str">
+      <c r="U47" s="401"/>
+      <c r="V47" s="401"/>
+      <c r="W47" s="401" t="str">
         <f>August!J46</f>
         <v/>
       </c>
-      <c r="X47" s="390"/>
-      <c r="Y47" s="390"/>
-      <c r="Z47" s="390" t="str">
+      <c r="X47" s="401"/>
+      <c r="Y47" s="401"/>
+      <c r="Z47" s="401" t="str">
         <f>September!J46</f>
         <v/>
       </c>
-      <c r="AA47" s="390"/>
-      <c r="AB47" s="390"/>
-      <c r="AC47" s="390" t="str">
+      <c r="AA47" s="401"/>
+      <c r="AB47" s="401"/>
+      <c r="AC47" s="401" t="str">
         <f>Oktober!J46</f>
         <v/>
       </c>
-      <c r="AD47" s="390"/>
-      <c r="AE47" s="390"/>
-      <c r="AF47" s="390" t="str">
+      <c r="AD47" s="401"/>
+      <c r="AE47" s="401"/>
+      <c r="AF47" s="401" t="str">
         <f>November!J46</f>
         <v/>
       </c>
-      <c r="AG47" s="390"/>
-      <c r="AH47" s="390"/>
-      <c r="AI47" s="390" t="str">
+      <c r="AG47" s="401"/>
+      <c r="AH47" s="401"/>
+      <c r="AI47" s="401" t="str">
         <f>Dezember!J46</f>
         <v/>
       </c>
-      <c r="AJ47" s="390"/>
-      <c r="AK47" s="390"/>
+      <c r="AJ47" s="401"/>
+      <c r="AK47" s="401"/>
       <c r="AL47" s="328">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24214,78 +24345,78 @@
         <f>IF(Voreinstellungen!A33="","",Voreinstellungen!A33&amp;" ("&amp;Voreinstellungen!B33&amp;")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="B48" s="391" t="str">
+      <c r="B48" s="402" t="str">
         <f>Januar!J47</f>
         <v/>
       </c>
-      <c r="C48" s="391"/>
-      <c r="D48" s="391"/>
-      <c r="E48" s="391" t="str">
+      <c r="C48" s="402"/>
+      <c r="D48" s="402"/>
+      <c r="E48" s="402" t="str">
         <f>Februar!J47</f>
         <v/>
       </c>
-      <c r="F48" s="391"/>
-      <c r="G48" s="391"/>
-      <c r="H48" s="391" t="str">
+      <c r="F48" s="402"/>
+      <c r="G48" s="402"/>
+      <c r="H48" s="402" t="str">
         <f>März!J47</f>
         <v/>
       </c>
-      <c r="I48" s="391"/>
-      <c r="J48" s="391"/>
-      <c r="K48" s="391" t="str">
+      <c r="I48" s="402"/>
+      <c r="J48" s="402"/>
+      <c r="K48" s="402" t="str">
         <f>April!J47</f>
         <v/>
       </c>
-      <c r="L48" s="391"/>
-      <c r="M48" s="391"/>
-      <c r="N48" s="391" t="str">
+      <c r="L48" s="402"/>
+      <c r="M48" s="402"/>
+      <c r="N48" s="402" t="str">
         <f>Mai!J47</f>
         <v/>
       </c>
-      <c r="O48" s="391"/>
-      <c r="P48" s="391"/>
-      <c r="Q48" s="391" t="str">
+      <c r="O48" s="402"/>
+      <c r="P48" s="402"/>
+      <c r="Q48" s="402" t="str">
         <f>Juni!J47</f>
         <v/>
       </c>
-      <c r="R48" s="391"/>
-      <c r="S48" s="391"/>
-      <c r="T48" s="391" t="str">
+      <c r="R48" s="402"/>
+      <c r="S48" s="402"/>
+      <c r="T48" s="402" t="str">
         <f>Juli!J47</f>
         <v/>
       </c>
-      <c r="U48" s="391"/>
-      <c r="V48" s="391"/>
-      <c r="W48" s="391" t="str">
+      <c r="U48" s="402"/>
+      <c r="V48" s="402"/>
+      <c r="W48" s="402" t="str">
         <f>August!J47</f>
         <v/>
       </c>
-      <c r="X48" s="391"/>
-      <c r="Y48" s="391"/>
-      <c r="Z48" s="391" t="str">
+      <c r="X48" s="402"/>
+      <c r="Y48" s="402"/>
+      <c r="Z48" s="402" t="str">
         <f>September!J47</f>
         <v/>
       </c>
-      <c r="AA48" s="391"/>
-      <c r="AB48" s="391"/>
-      <c r="AC48" s="391" t="str">
+      <c r="AA48" s="402"/>
+      <c r="AB48" s="402"/>
+      <c r="AC48" s="402" t="str">
         <f>Oktober!J47</f>
         <v/>
       </c>
-      <c r="AD48" s="391"/>
-      <c r="AE48" s="391"/>
-      <c r="AF48" s="391" t="str">
+      <c r="AD48" s="402"/>
+      <c r="AE48" s="402"/>
+      <c r="AF48" s="402" t="str">
         <f>November!J47</f>
         <v/>
       </c>
-      <c r="AG48" s="391"/>
-      <c r="AH48" s="391"/>
-      <c r="AI48" s="391" t="str">
+      <c r="AG48" s="402"/>
+      <c r="AH48" s="402"/>
+      <c r="AI48" s="402" t="str">
         <f>Dezember!J47</f>
         <v/>
       </c>
-      <c r="AJ48" s="391"/>
-      <c r="AK48" s="391"/>
+      <c r="AJ48" s="402"/>
+      <c r="AK48" s="402"/>
       <c r="AL48" s="330">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24295,78 +24426,78 @@
       <c r="A49" s="331" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="389">
+      <c r="B49" s="403">
         <f>Januar!P39</f>
         <v>0</v>
       </c>
-      <c r="C49" s="389"/>
-      <c r="D49" s="389"/>
-      <c r="E49" s="389">
+      <c r="C49" s="403"/>
+      <c r="D49" s="403"/>
+      <c r="E49" s="403">
         <f>Februar!P39</f>
         <v>0</v>
       </c>
-      <c r="F49" s="389"/>
-      <c r="G49" s="389"/>
-      <c r="H49" s="389">
+      <c r="F49" s="403"/>
+      <c r="G49" s="403"/>
+      <c r="H49" s="403">
         <f>März!P39</f>
         <v>0</v>
       </c>
-      <c r="I49" s="389"/>
-      <c r="J49" s="389"/>
-      <c r="K49" s="389">
+      <c r="I49" s="403"/>
+      <c r="J49" s="403"/>
+      <c r="K49" s="403">
         <f>April!P39</f>
         <v>0</v>
       </c>
-      <c r="L49" s="389"/>
-      <c r="M49" s="389"/>
-      <c r="N49" s="389">
+      <c r="L49" s="403"/>
+      <c r="M49" s="403"/>
+      <c r="N49" s="403">
         <f>Mai!P39</f>
         <v>0</v>
       </c>
-      <c r="O49" s="389"/>
-      <c r="P49" s="389"/>
-      <c r="Q49" s="389">
+      <c r="O49" s="403"/>
+      <c r="P49" s="403"/>
+      <c r="Q49" s="403">
         <f>Juni!P39</f>
         <v>0</v>
       </c>
-      <c r="R49" s="389"/>
-      <c r="S49" s="389"/>
-      <c r="T49" s="389">
+      <c r="R49" s="403"/>
+      <c r="S49" s="403"/>
+      <c r="T49" s="403">
         <f>Juli!P39</f>
         <v>0</v>
       </c>
-      <c r="U49" s="389"/>
-      <c r="V49" s="389"/>
-      <c r="W49" s="389">
+      <c r="U49" s="403"/>
+      <c r="V49" s="403"/>
+      <c r="W49" s="403">
         <f>August!P39</f>
         <v>0</v>
       </c>
-      <c r="X49" s="389"/>
-      <c r="Y49" s="389"/>
-      <c r="Z49" s="389">
+      <c r="X49" s="403"/>
+      <c r="Y49" s="403"/>
+      <c r="Z49" s="403">
         <f>September!P39</f>
         <v>0</v>
       </c>
-      <c r="AA49" s="389"/>
-      <c r="AB49" s="389"/>
-      <c r="AC49" s="389">
+      <c r="AA49" s="403"/>
+      <c r="AB49" s="403"/>
+      <c r="AC49" s="403">
         <f>Oktober!P39</f>
         <v>0</v>
       </c>
-      <c r="AD49" s="389"/>
-      <c r="AE49" s="389"/>
-      <c r="AF49" s="389">
+      <c r="AD49" s="403"/>
+      <c r="AE49" s="403"/>
+      <c r="AF49" s="403">
         <f>November!P39</f>
         <v>0</v>
       </c>
-      <c r="AG49" s="389"/>
-      <c r="AH49" s="389"/>
-      <c r="AI49" s="389">
+      <c r="AG49" s="403"/>
+      <c r="AH49" s="403"/>
+      <c r="AI49" s="403">
         <f>Dezember!P39</f>
         <v>0</v>
       </c>
-      <c r="AJ49" s="389"/>
-      <c r="AK49" s="389"/>
+      <c r="AJ49" s="403"/>
+      <c r="AK49" s="403"/>
       <c r="AL49" s="332">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -24375,22 +24506,162 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="NAjAwljj5JLvGzE8LseGj02m9hGGtNOxZYyQ4RYzLUwmhLc0GdS/WayRdfnZYrqGRN4HeHSkhJxjaDM3q7ar7w==" saltValue="QdbqNTRdSMrA/zOfFCB8ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="196">
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="E1:AH2"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AI2:AL2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="T3:V3"/>
-    <mergeCell ref="W3:Y3"/>
-    <mergeCell ref="Z3:AB3"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="AI3:AK3"/>
+    <mergeCell ref="AC49:AE49"/>
+    <mergeCell ref="AF49:AH49"/>
+    <mergeCell ref="AI49:AK49"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:P49"/>
+    <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="T49:V49"/>
+    <mergeCell ref="W49:Y49"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AC47:AE47"/>
+    <mergeCell ref="AF47:AH47"/>
+    <mergeCell ref="AI47:AK47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:P48"/>
+    <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="T48:V48"/>
+    <mergeCell ref="W48:Y48"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AC48:AE48"/>
+    <mergeCell ref="AF48:AH48"/>
+    <mergeCell ref="AI48:AK48"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:P47"/>
+    <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="T47:V47"/>
+    <mergeCell ref="W47:Y47"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AC45:AE45"/>
+    <mergeCell ref="AF45:AH45"/>
+    <mergeCell ref="AI45:AK45"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:P46"/>
+    <mergeCell ref="Q46:S46"/>
+    <mergeCell ref="T46:V46"/>
+    <mergeCell ref="W46:Y46"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AC46:AE46"/>
+    <mergeCell ref="AF46:AH46"/>
+    <mergeCell ref="AI46:AK46"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AC43:AE43"/>
+    <mergeCell ref="AF43:AH43"/>
+    <mergeCell ref="AI43:AK43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="K44:M44"/>
+    <mergeCell ref="N44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:V44"/>
+    <mergeCell ref="W44:Y44"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AC44:AE44"/>
+    <mergeCell ref="AF44:AH44"/>
+    <mergeCell ref="AI44:AK44"/>
+    <mergeCell ref="B43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:M43"/>
+    <mergeCell ref="N43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:V43"/>
+    <mergeCell ref="W43:Y43"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AC41:AE41"/>
+    <mergeCell ref="AF41:AH41"/>
+    <mergeCell ref="AI41:AK41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:V42"/>
+    <mergeCell ref="W42:Y42"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AC42:AE42"/>
+    <mergeCell ref="AF42:AH42"/>
+    <mergeCell ref="AI42:AK42"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:V41"/>
+    <mergeCell ref="W41:Y41"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AC39:AE39"/>
+    <mergeCell ref="AF39:AH39"/>
+    <mergeCell ref="AI39:AK39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:V40"/>
+    <mergeCell ref="W40:Y40"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AC40:AE40"/>
+    <mergeCell ref="AF40:AH40"/>
+    <mergeCell ref="AI40:AK40"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:V39"/>
+    <mergeCell ref="W39:Y39"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AC37:AD37"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:V38"/>
+    <mergeCell ref="W38:Y38"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AC38:AE38"/>
+    <mergeCell ref="AF38:AH38"/>
+    <mergeCell ref="AI38:AK38"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="W37:X37"/>
+    <mergeCell ref="Z37:AA37"/>
     <mergeCell ref="AC35:AD35"/>
     <mergeCell ref="AF35:AG35"/>
     <mergeCell ref="AI35:AJ35"/>
@@ -24415,258 +24686,118 @@
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="W35:X35"/>
     <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AC37:AD37"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:P38"/>
-    <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="T38:V38"/>
-    <mergeCell ref="W38:Y38"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AC38:AE38"/>
-    <mergeCell ref="AF38:AH38"/>
-    <mergeCell ref="AI38:AK38"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="W37:X37"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AC39:AE39"/>
-    <mergeCell ref="AF39:AH39"/>
-    <mergeCell ref="AI39:AK39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:P40"/>
-    <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="T40:V40"/>
-    <mergeCell ref="W40:Y40"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AC40:AE40"/>
-    <mergeCell ref="AF40:AH40"/>
-    <mergeCell ref="AI40:AK40"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:P39"/>
-    <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="T39:V39"/>
-    <mergeCell ref="W39:Y39"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AC41:AE41"/>
-    <mergeCell ref="AF41:AH41"/>
-    <mergeCell ref="AI41:AK41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:P42"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:V42"/>
-    <mergeCell ref="W42:Y42"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AC42:AE42"/>
-    <mergeCell ref="AF42:AH42"/>
-    <mergeCell ref="AI42:AK42"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:P41"/>
-    <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="T41:V41"/>
-    <mergeCell ref="W41:Y41"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AC43:AE43"/>
-    <mergeCell ref="AF43:AH43"/>
-    <mergeCell ref="AI43:AK43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="K44:M44"/>
-    <mergeCell ref="N44:P44"/>
-    <mergeCell ref="Q44:S44"/>
-    <mergeCell ref="T44:V44"/>
-    <mergeCell ref="W44:Y44"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AC44:AE44"/>
-    <mergeCell ref="AF44:AH44"/>
-    <mergeCell ref="AI44:AK44"/>
-    <mergeCell ref="B43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:M43"/>
-    <mergeCell ref="N43:P43"/>
-    <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="T43:V43"/>
-    <mergeCell ref="W43:Y43"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AC45:AE45"/>
-    <mergeCell ref="AF45:AH45"/>
-    <mergeCell ref="AI45:AK45"/>
-    <mergeCell ref="B46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:P46"/>
-    <mergeCell ref="Q46:S46"/>
-    <mergeCell ref="T46:V46"/>
-    <mergeCell ref="W46:Y46"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AC46:AE46"/>
-    <mergeCell ref="AF46:AH46"/>
-    <mergeCell ref="AI46:AK46"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AC47:AE47"/>
-    <mergeCell ref="AF47:AH47"/>
-    <mergeCell ref="AI47:AK47"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:P48"/>
-    <mergeCell ref="Q48:S48"/>
-    <mergeCell ref="T48:V48"/>
-    <mergeCell ref="W48:Y48"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AC48:AE48"/>
-    <mergeCell ref="AF48:AH48"/>
-    <mergeCell ref="AI48:AK48"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:P47"/>
-    <mergeCell ref="Q47:S47"/>
-    <mergeCell ref="T47:V47"/>
-    <mergeCell ref="W47:Y47"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AC49:AE49"/>
-    <mergeCell ref="AF49:AH49"/>
-    <mergeCell ref="AI49:AK49"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:P49"/>
-    <mergeCell ref="Q49:S49"/>
-    <mergeCell ref="T49:V49"/>
-    <mergeCell ref="W49:Y49"/>
-    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="E1:AH2"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AI2:AL2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="T3:V3"/>
+    <mergeCell ref="W3:Y3"/>
+    <mergeCell ref="Z3:AB3"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="AI3:AK3"/>
   </mergeCells>
   <conditionalFormatting sqref="B4:D34">
-    <cfRule type="expression" dxfId="23" priority="2">
+    <cfRule type="expression" dxfId="25" priority="2">
       <formula>WEEKDAY($B4,2)=6</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:D34">
-    <cfRule type="expression" dxfId="22" priority="3">
+    <cfRule type="expression" dxfId="24" priority="3">
       <formula>OR(WEEKDAY($B4,2)=7,ISERROR(VLOOKUP($B4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:G34">
-    <cfRule type="expression" dxfId="21" priority="4">
+    <cfRule type="expression" dxfId="23" priority="4">
       <formula>WEEKDAY($E4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="5">
+    <cfRule type="expression" dxfId="22" priority="5">
       <formula>OR(WEEKDAY($E4,2)=7,ISERROR(VLOOKUP($E4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:J34">
-    <cfRule type="expression" dxfId="19" priority="6">
+    <cfRule type="expression" dxfId="21" priority="6">
       <formula>WEEKDAY($H4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="7">
+    <cfRule type="expression" dxfId="20" priority="7">
       <formula>OR(WEEKDAY($H4,2)=7,ISERROR(VLOOKUP($H4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:M34">
-    <cfRule type="expression" dxfId="17" priority="8">
+    <cfRule type="expression" dxfId="19" priority="8">
       <formula>WEEKDAY($K4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="9">
+    <cfRule type="expression" dxfId="18" priority="9">
       <formula>OR(WEEKDAY($K4,2)=7,ISERROR(VLOOKUP($K4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:P34">
-    <cfRule type="expression" dxfId="15" priority="10">
+    <cfRule type="expression" dxfId="17" priority="10">
       <formula>WEEKDAY($N4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="16" priority="11">
       <formula>OR(WEEKDAY($N4,2)=7,ISERROR(VLOOKUP($N4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q4:S34">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="15" priority="12">
       <formula>WEEKDAY($Q4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="14" priority="13">
       <formula>OR(WEEKDAY($Q4,2)=7,ISERROR(VLOOKUP($Q4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T4:V34">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>WEEKDAY($T4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="12" priority="15">
       <formula>OR(WEEKDAY($T4,2)=7,ISERROR(VLOOKUP($T4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W4:Y34">
-    <cfRule type="expression" dxfId="9" priority="16">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>WEEKDAY($W4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="17">
+    <cfRule type="expression" dxfId="10" priority="17">
       <formula>OR(WEEKDAY($W4,2)=7,ISERROR(VLOOKUP($W4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z4:AB34">
-    <cfRule type="expression" dxfId="7" priority="18">
+    <cfRule type="expression" dxfId="9" priority="18">
       <formula>WEEKDAY($Z4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="19">
+    <cfRule type="expression" dxfId="8" priority="19">
       <formula>OR(WEEKDAY($Z4,2)=7,ISERROR(VLOOKUP($Z4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC4:AE34">
-    <cfRule type="expression" dxfId="5" priority="20">
+    <cfRule type="expression" dxfId="7" priority="20">
       <formula>WEEKDAY($AC4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="21">
+    <cfRule type="expression" dxfId="6" priority="21">
       <formula>OR(WEEKDAY($AC4,2)=7,ISERROR(VLOOKUP($AC4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF4:AH34">
-    <cfRule type="expression" dxfId="3" priority="22">
+    <cfRule type="expression" dxfId="5" priority="22">
       <formula>WEEKDAY($AF4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="23">
+    <cfRule type="expression" dxfId="4" priority="23">
       <formula>OR(WEEKDAY($AF4,2)=7,ISERROR(VLOOKUP($AF4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI4:AK34">
-    <cfRule type="expression" dxfId="1" priority="24">
+    <cfRule type="expression" dxfId="3" priority="24">
       <formula>WEEKDAY($AI4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="25">
+    <cfRule type="expression" dxfId="2" priority="25">
       <formula>OR(WEEKDAY($AI4,2)=7,ISERROR(VLOOKUP($AI4,Feiertage,2,0))=0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28190,11 +28321,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:P1"/>
     <mergeCell ref="AF1:AH1"/>
     <mergeCell ref="AI1:AK1"/>
     <mergeCell ref="Q1:S1"/>
@@ -28202,6 +28328,11 @@
     <mergeCell ref="W1:Y1"/>
     <mergeCell ref="Z1:AB1"/>
     <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.39374999999999999" right="0.39374999999999999" top="0.39374999999999999" bottom="0.39374999999999999" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
@@ -28245,7 +28376,7 @@
       <c r="C2" s="346"/>
       <c r="D2" s="347">
         <f>Jahresübersicht!AL38</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28266,7 +28397,7 @@
       <c r="C4" s="346"/>
       <c r="D4" s="349">
         <f>D2*D3</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28293,7 +28424,7 @@
       <c r="C6" s="354"/>
       <c r="D6" s="355">
         <f>D5*D2</f>
-        <v>3.5999999999999996</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="79" customFormat="1" ht="11.4" x14ac:dyDescent="0.25">
@@ -28876,16 +29007,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,1,1)</f>
         <v>42369</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -28896,20 +29027,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -28917,11 +29048,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="174" t="s">
@@ -28943,10 +29074,10 @@
       <c r="G3" s="177" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="386" t="s">
+      <c r="H3" s="381" t="s">
         <v>100</v>
       </c>
-      <c r="I3" s="386"/>
+      <c r="I3" s="381"/>
       <c r="J3" s="178" t="s">
         <v>25</v>
       </c>
@@ -30400,13 +30531,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -30431,14 +30562,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -30463,13 +30594,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -30487,13 +30618,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!B2:B32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -30517,13 +30648,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -30538,14 +30669,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -30562,14 +30693,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -30590,14 +30721,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -30614,14 +30745,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -30638,14 +30769,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -30666,14 +30797,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -30682,57 +30813,57 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="lp/gUAhG/NxZFg3ZxNZpc/OMzuBWhvAjWYsACyturmzwEz4MrdPY4Z7bq2mhYT4TO4KC+V+re4wY95aL7XG1tQ==" saltValue="hjUq3gkEjcUTitg1OCiokA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="142" priority="2">
+    <cfRule type="expression" dxfId="144" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:P34">
-    <cfRule type="expression" dxfId="141" priority="3">
+    <cfRule type="expression" dxfId="143" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="140" priority="4">
+    <cfRule type="expression" dxfId="142" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="139" priority="5">
+    <cfRule type="expression" dxfId="141" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="138" priority="6">
+    <cfRule type="expression" dxfId="140" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="137" priority="7">
+    <cfRule type="expression" dxfId="139" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="136" priority="8">
+    <cfRule type="expression" dxfId="138" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="135" priority="9">
+    <cfRule type="expression" dxfId="137" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30779,16 +30910,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,2,1)</f>
         <v>42400</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -30799,20 +30930,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -30820,11 +30951,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -32304,13 +32435,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -32336,14 +32467,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -32369,13 +32500,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32394,13 +32525,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!E2:E32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -32425,13 +32556,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -32466,14 +32597,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -32493,14 +32624,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -32524,14 +32655,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -32551,14 +32682,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -32578,14 +32709,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -32609,14 +32740,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -32625,65 +32756,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="okIzBtHKggQ01MGGC2bszYk91StqozcmrYdftDgOilTYlvdE0Pl7X/6VKmLBwp+KgXmMJxumD3QyyxK99J0gUQ==" saltValue="ZOtWP+MiiqCmy7p7S++Ahg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="134" priority="2">
+    <cfRule type="expression" dxfId="136" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="133" priority="3">
+    <cfRule type="expression" dxfId="135" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="132" priority="4">
+    <cfRule type="expression" dxfId="134" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="131" priority="5">
+    <cfRule type="expression" dxfId="133" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="130" priority="6">
+    <cfRule type="expression" dxfId="132" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="129" priority="7">
+    <cfRule type="expression" dxfId="131" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="128" priority="8">
+    <cfRule type="expression" dxfId="130" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="127" priority="9">
+    <cfRule type="expression" dxfId="129" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="126" priority="10">
+    <cfRule type="expression" dxfId="128" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="125" priority="11">
+    <cfRule type="expression" dxfId="127" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32730,16 +32861,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,3,1)</f>
         <v>42429</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 22</v>
@@ -32750,20 +32881,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -32771,11 +32902,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -34271,13 +34402,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -34303,14 +34434,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -34336,13 +34467,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34361,13 +34492,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!H2:H32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -34392,13 +34523,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -34433,14 +34564,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -34460,14 +34591,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -34491,14 +34622,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -34518,14 +34649,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -34545,14 +34676,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -34576,14 +34707,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -34592,65 +34723,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="8bs5maBzQkpyWCWnfl5Y0EE0IEYlqNMuKPAycQ9E2wZgEzT6ibfX2pN8bX4JzzAJkR75IpPZSDHXpEZi94/j+w==" saltValue="YxFepfb/JmJZGcAKQ4IRSg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="124" priority="2">
+    <cfRule type="expression" dxfId="126" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="123" priority="3">
+    <cfRule type="expression" dxfId="125" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="122" priority="4">
+    <cfRule type="expression" dxfId="124" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="121" priority="5">
+    <cfRule type="expression" dxfId="123" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="120" priority="6">
+    <cfRule type="expression" dxfId="122" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="119" priority="7">
+    <cfRule type="expression" dxfId="121" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="118" priority="8">
+    <cfRule type="expression" dxfId="120" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="117" priority="9">
+    <cfRule type="expression" dxfId="119" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="116" priority="10">
+    <cfRule type="expression" dxfId="118" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="115" priority="11">
+    <cfRule type="expression" dxfId="117" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34697,16 +34828,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,4,1)</f>
         <v>42460</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 20</v>
@@ -34717,20 +34848,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -34738,11 +34869,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -36380,13 +36511,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -36412,14 +36543,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -36445,13 +36576,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36470,13 +36601,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!K2:K32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -36501,13 +36632,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>6</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -36542,14 +36673,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -36569,14 +36700,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -36600,14 +36731,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -36627,14 +36758,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -36654,14 +36785,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -36685,14 +36816,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -36701,70 +36832,70 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="oi4D8G4bpKsjvNQAOV1IVD5oC246U1tsOknZR5CKhoaFKJim1Y4VsiD+22BHLJMb/nIlWvWONK0BmT35EEtHBw==" saltValue="4I5lsQG8NfttgzRFKQim+Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="114" priority="2">
+    <cfRule type="expression" dxfId="116" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4:P34 A4:M34">
-    <cfRule type="expression" dxfId="113" priority="3">
+    <cfRule type="expression" dxfId="115" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="4">
+    <cfRule type="expression" dxfId="114" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34 E4">
-    <cfRule type="expression" dxfId="111" priority="5">
+    <cfRule type="expression" dxfId="113" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E34">
-    <cfRule type="expression" dxfId="110" priority="6">
+    <cfRule type="expression" dxfId="112" priority="6">
       <formula>ISTEXT($E5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="109" priority="7">
+    <cfRule type="expression" dxfId="111" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="108" priority="8">
+    <cfRule type="expression" dxfId="110" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="107" priority="9">
+    <cfRule type="expression" dxfId="109" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="106" priority="10">
+    <cfRule type="expression" dxfId="108" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="105" priority="11">
+    <cfRule type="expression" dxfId="107" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="expression" dxfId="104" priority="12">
+    <cfRule type="expression" dxfId="106" priority="12">
       <formula>ISTEXT($E11)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36789,7 +36920,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomLeft" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -36811,16 +36942,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,5,1)</f>
         <v>42490</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 19</v>
@@ -36831,20 +36962,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -36852,11 +36983,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -37439,7 +37570,9 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O14" s="208"/>
+      <c r="O14" s="208" t="s">
+        <v>162</v>
+      </c>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
         <v>1.96875</v>
@@ -37484,7 +37617,7 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="O15" s="208"/>
+      <c r="O15" s="406"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
         <v>1.96875</v>
@@ -37503,19 +37636,25 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="200"/>
-      <c r="E16" s="200"/>
+      <c r="D16" s="200">
+        <v>0.375</v>
+      </c>
+      <c r="E16" s="200">
+        <v>0.76388888888888884</v>
+      </c>
       <c r="F16" s="200"/>
       <c r="G16" s="200"/>
-      <c r="H16" s="201"/>
+      <c r="H16" s="201">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="I16" s="202" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>!</v>
       </c>
       <c r="J16" s="203"/>
       <c r="K16" s="204">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.36805555555555552</v>
       </c>
       <c r="L16" s="205">
         <f t="shared" ca="1" si="4"/>
@@ -37523,16 +37662,18 @@
       </c>
       <c r="M16" s="206">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.33333333333332998</v>
+        <v>3.4722222222220003E-2</v>
       </c>
       <c r="N16" s="207">
         <f t="shared" ca="1" si="6"/>
         <v>0.33333333333333298</v>
       </c>
-      <c r="O16" s="208"/>
+      <c r="O16" s="208" t="s">
+        <v>161</v>
+      </c>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.6354166666666701</v>
+        <v>2.0034722222222201</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37577,7 +37718,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.46875</v>
+        <v>1.83680555555555</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37622,7 +37763,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1354166666666701</v>
+        <v>1.5034722222222201</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37667,7 +37808,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1354166666666701</v>
+        <v>1.5034722222222201</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37712,7 +37853,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1354166666666701</v>
+        <v>1.5034722222222201</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37757,7 +37898,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1354166666666701</v>
+        <v>1.5034722222222201</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37802,7 +37943,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>1.1354166666666701</v>
+        <v>1.5034722222222201</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37847,7 +37988,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.80208333333334003</v>
+        <v>1.1701388888888899</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37892,7 +38033,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.80208333333334003</v>
+        <v>1.1701388888888899</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37937,7 +38078,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46875000000000999</v>
+        <v>0.83680555555556002</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -37982,7 +38123,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46875000000000999</v>
+        <v>0.83680555555556002</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38027,7 +38168,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46875000000000999</v>
+        <v>0.83680555555556002</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38072,7 +38213,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46875000000000999</v>
+        <v>0.83680555555556002</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38117,7 +38258,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.46875000000000999</v>
+        <v>0.83680555555556002</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38162,7 +38303,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>0.13541666666668001</v>
+        <v>0.50347222222222998</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38207,7 +38348,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.1249999999990001E-2</v>
+        <v>0.33680555555556002</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38252,7 +38393,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333331999</v>
+        <v>3.4722222222300001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38297,7 +38438,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333331999</v>
+        <v>3.4722222222300001E-3</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38342,7 +38483,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.36458333333331999</v>
+        <v>3.4722222222300001E-3</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -38382,13 +38523,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -38414,14 +38555,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -38438,7 +38579,7 @@
       </c>
       <c r="F38" s="246">
         <f>SUM(K4:K34)</f>
-        <v>1.40625</v>
+        <v>1.7743055555555556</v>
       </c>
       <c r="G38" s="163"/>
       <c r="H38" s="163"/>
@@ -38447,13 +38588,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38472,13 +38613,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!N2:N32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -38494,22 +38635,22 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-0.36458333333332998</v>
+        <v>3.4722222222300001E-3</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
       <c r="I40" s="258"/>
       <c r="J40" s="259">
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
-        <v>6</v>
-      </c>
-      <c r="K40" s="381" t="s">
+        <v>7</v>
+      </c>
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -38544,14 +38685,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -38571,14 +38712,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -38602,14 +38743,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -38629,14 +38770,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -38656,14 +38797,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -38687,14 +38828,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -38703,66 +38844,74 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QE1OXV5P+vCQbWDCwyrZigSC30Vre5KDIK3YefI6iJ2kBvo5eJZ3P2WpMdeyjVmOLwE7gtGXH8QYo5l1KTRF3g==" saltValue="r1rnDj8jh4CoB2lzDE4Hjg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="103" priority="2">
+    <cfRule type="expression" dxfId="105" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="102" priority="3">
+  <conditionalFormatting sqref="A4:M34 O4:P13 O16:P34 P14:P15">
+    <cfRule type="expression" dxfId="104" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="4">
+    <cfRule type="expression" dxfId="103" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="100" priority="5">
+    <cfRule type="expression" dxfId="102" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="99" priority="6">
+    <cfRule type="expression" dxfId="101" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="98" priority="7">
+    <cfRule type="expression" dxfId="100" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="97" priority="8">
+    <cfRule type="expression" dxfId="99" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="96" priority="9">
+    <cfRule type="expression" dxfId="98" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="95" priority="10">
+    <cfRule type="expression" dxfId="97" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="11">
+    <cfRule type="expression" dxfId="96" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O14">
+    <cfRule type="expression" dxfId="1" priority="28">
+      <formula>WEEKDAY($A15,2)=6</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="29">
+      <formula>OR(WEEKDAY($A15,2)=7,$C15&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -38808,16 +38957,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,6,1)</f>
         <v>42521</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 21</v>
@@ -38828,20 +38977,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -38849,11 +38998,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -38943,7 +39092,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-0.36458333333332998</v>
+        <v>3.4722222222300001E-3</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -38988,7 +39137,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-0.36458333333332998</v>
+        <v>3.4722222222300001E-3</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39033,7 +39182,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.69791666666665997</v>
+        <v>-0.3298611111111</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39078,7 +39227,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-0.86458333333333004</v>
+        <v>-0.49652777777777002</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39123,7 +39272,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1979166666666601</v>
+        <v>-0.82986111111109995</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39168,7 +39317,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1979166666666601</v>
+        <v>-0.82986111111109995</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39213,7 +39362,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1979166666666601</v>
+        <v>-0.82986111111109995</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39258,7 +39407,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1979166666666601</v>
+        <v>-0.82986111111109995</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39303,7 +39452,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.1979166666666601</v>
+        <v>-0.82986111111109995</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39348,7 +39497,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.53124999999999</v>
+        <v>-1.16319444444443</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39393,7 +39542,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-1.6979166666666601</v>
+        <v>-1.3298611111111001</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39438,7 +39587,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0312499999999898</v>
+        <v>-1.66319444444443</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39483,7 +39632,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0312499999999898</v>
+        <v>-1.66319444444443</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39528,7 +39677,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0312499999999898</v>
+        <v>-1.66319444444443</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39573,7 +39722,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0312499999999898</v>
+        <v>-1.66319444444443</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39618,7 +39767,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.0312499999999898</v>
+        <v>-1.66319444444443</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39663,7 +39812,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.3645833333333202</v>
+        <v>-1.9965277777777599</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39708,7 +39857,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.5312499999999898</v>
+        <v>-2.16319444444443</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39753,7 +39902,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8645833333333202</v>
+        <v>-2.4965277777777599</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39798,7 +39947,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8645833333333202</v>
+        <v>-2.4965277777777599</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39843,7 +39992,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8645833333333202</v>
+        <v>-2.4965277777777599</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39888,7 +40037,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8645833333333202</v>
+        <v>-2.4965277777777599</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39933,7 +40082,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-2.8645833333333202</v>
+        <v>-2.4965277777777599</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -39978,7 +40127,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.1979166666666501</v>
+        <v>-2.8298611111110898</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40023,7 +40172,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.3645833333333202</v>
+        <v>-2.9965277777777599</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40068,7 +40217,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.6979166666666501</v>
+        <v>-3.3298611111110898</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40113,7 +40262,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.6979166666666501</v>
+        <v>-3.3298611111110898</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40158,7 +40307,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.6979166666666501</v>
+        <v>-3.3298611111110898</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40203,7 +40352,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.6979166666666501</v>
+        <v>-3.3298611111110898</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40248,7 +40397,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-3.6979166666666501</v>
+        <v>-3.3298611111110898</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40324,7 +40473,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Mai!F40</f>
-        <v>-0.36458333333332998</v>
+        <v>3.4722222222300001E-3</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -40333,13 +40482,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -40365,14 +40514,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -40398,13 +40547,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40423,13 +40572,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!Q2:Q32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -40445,7 +40594,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-3.6979166666666599</v>
+        <v>-3.3298611111111001</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -40454,13 +40603,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -40495,14 +40644,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -40522,14 +40671,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -40553,14 +40702,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -40580,14 +40729,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -40607,14 +40756,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -40638,14 +40787,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -40654,65 +40803,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="FLGQGPkIrZFJRYfIzM5dNAg+vmhj9bs+eX+BsfoXkS85xz/DWFzyxzWRzBLXdkZU/6+8Lk0XkXSRD1REULPCKQ==" saltValue="/ZQvF5XqnLB5M3rbo0of0w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="93" priority="2">
+    <cfRule type="expression" dxfId="95" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="92" priority="3">
+    <cfRule type="expression" dxfId="94" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="4">
+    <cfRule type="expression" dxfId="93" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="90" priority="5">
+    <cfRule type="expression" dxfId="92" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="89" priority="6">
+    <cfRule type="expression" dxfId="91" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="88" priority="7">
+    <cfRule type="expression" dxfId="90" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="87" priority="8">
+    <cfRule type="expression" dxfId="89" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="86" priority="9">
+    <cfRule type="expression" dxfId="88" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="85" priority="10">
+    <cfRule type="expression" dxfId="87" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="11">
+    <cfRule type="expression" dxfId="86" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40759,16 +40908,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="383">
+      <c r="A1" s="378">
         <f>DATE(Jahr,7,1)</f>
         <v>42551</v>
       </c>
-      <c r="B1" s="383"/>
-      <c r="C1" s="383"/>
-      <c r="D1" s="383"/>
-      <c r="E1" s="383"/>
-      <c r="F1" s="383"/>
-      <c r="G1" s="383"/>
+      <c r="B1" s="378"/>
+      <c r="C1" s="378"/>
+      <c r="D1" s="378"/>
+      <c r="E1" s="378"/>
+      <c r="F1" s="378"/>
+      <c r="G1" s="378"/>
       <c r="H1" s="165" t="str">
         <f>"Nettoarbeitstage: "&amp;NETWORKDAYS(A1,EOMONTH(A1,0),Feiertage!A4:A39)</f>
         <v>Nettoarbeitstage: 23</v>
@@ -40779,20 +40928,20 @@
       <c r="L1" s="168"/>
       <c r="M1" s="166"/>
       <c r="N1" s="169"/>
-      <c r="O1" s="384" t="str">
+      <c r="O1" s="379" t="str">
         <f>Voreinstellungen!C3</f>
         <v>Reyes Andrade, Juan Carlos</v>
       </c>
-      <c r="P1" s="384"/>
+      <c r="P1" s="379"/>
     </row>
     <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="383"/>
-      <c r="B2" s="383"/>
-      <c r="C2" s="383"/>
-      <c r="D2" s="383"/>
-      <c r="E2" s="383"/>
-      <c r="F2" s="383"/>
-      <c r="G2" s="383"/>
+      <c r="A2" s="378"/>
+      <c r="B2" s="378"/>
+      <c r="C2" s="378"/>
+      <c r="D2" s="378"/>
+      <c r="E2" s="378"/>
+      <c r="F2" s="378"/>
+      <c r="G2" s="378"/>
       <c r="H2" s="170"/>
       <c r="I2" s="170"/>
       <c r="J2" s="170"/>
@@ -40800,11 +40949,11 @@
       <c r="L2" s="172"/>
       <c r="M2" s="170"/>
       <c r="N2" s="173"/>
-      <c r="O2" s="385" t="str">
+      <c r="O2" s="380" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C4),"","Personal-Nr.: "&amp;Voreinstellungen!C4)</f>
         <v/>
       </c>
-      <c r="P2" s="385"/>
+      <c r="P2" s="380"/>
     </row>
     <row r="3" spans="1:16" s="183" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="272" t="s">
@@ -40894,7 +41043,7 @@
       <c r="O4" s="195"/>
       <c r="P4" s="196">
         <f ca="1">IF(A4="","",IF(M4&lt;&gt;"",ROUND(F36+M4,14),F36))</f>
-        <v>-4.0312499999999902</v>
+        <v>-3.66319444444443</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40939,7 +41088,7 @@
       <c r="O5" s="208"/>
       <c r="P5" s="209">
         <f t="shared" ref="P5:P34" ca="1" si="8">IF(A5="","",IF(M5&lt;&gt;"",ROUND(P4+M5,14),P4))</f>
-        <v>-4.1979166666666599</v>
+        <v>-3.8298611111111001</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -40984,7 +41133,7 @@
       <c r="O6" s="208"/>
       <c r="P6" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5312499999999902</v>
+        <v>-4.1631944444444304</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41029,7 +41178,7 @@
       <c r="O7" s="208"/>
       <c r="P7" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5312499999999902</v>
+        <v>-4.1631944444444304</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41074,7 +41223,7 @@
       <c r="O8" s="208"/>
       <c r="P8" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5312499999999902</v>
+        <v>-4.1631944444444304</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41119,7 +41268,7 @@
       <c r="O9" s="208"/>
       <c r="P9" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5312499999999902</v>
+        <v>-4.1631944444444304</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41164,7 +41313,7 @@
       <c r="O10" s="208"/>
       <c r="P10" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.5312499999999902</v>
+        <v>-4.1631944444444304</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41209,7 +41358,7 @@
       <c r="O11" s="208"/>
       <c r="P11" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-4.8645833333333197</v>
+        <v>-4.4965277777777599</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41254,7 +41403,7 @@
       <c r="O12" s="208"/>
       <c r="P12" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.0312499999999902</v>
+        <v>-4.6631944444444304</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41299,7 +41448,7 @@
       <c r="O13" s="208"/>
       <c r="P13" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3645833333333197</v>
+        <v>-4.9965277777777599</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41344,7 +41493,7 @@
       <c r="O14" s="208"/>
       <c r="P14" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3645833333333197</v>
+        <v>-4.9965277777777599</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41389,7 +41538,7 @@
       <c r="O15" s="208"/>
       <c r="P15" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3645833333333197</v>
+        <v>-4.9965277777777599</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41434,7 +41583,7 @@
       <c r="O16" s="208"/>
       <c r="P16" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3645833333333197</v>
+        <v>-4.9965277777777599</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41479,7 +41628,7 @@
       <c r="O17" s="208"/>
       <c r="P17" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.3645833333333197</v>
+        <v>-4.9965277777777599</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41524,7 +41673,7 @@
       <c r="O18" s="208"/>
       <c r="P18" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.6979166666666501</v>
+        <v>-5.3298611111110903</v>
       </c>
     </row>
     <row r="19" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41569,7 +41718,7 @@
       <c r="O19" s="208"/>
       <c r="P19" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-5.8645833333333197</v>
+        <v>-5.4965277777777599</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41614,7 +41763,7 @@
       <c r="O20" s="208"/>
       <c r="P20" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1979166666666501</v>
+        <v>-5.8298611111110903</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41659,7 +41808,7 @@
       <c r="O21" s="208"/>
       <c r="P21" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1979166666666501</v>
+        <v>-5.8298611111110903</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41704,7 +41853,7 @@
       <c r="O22" s="208"/>
       <c r="P22" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1979166666666501</v>
+        <v>-5.8298611111110903</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41749,7 +41898,7 @@
       <c r="O23" s="208"/>
       <c r="P23" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1979166666666501</v>
+        <v>-5.8298611111110903</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41794,7 +41943,7 @@
       <c r="O24" s="208"/>
       <c r="P24" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.1979166666666501</v>
+        <v>-5.8298611111110903</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41839,7 +41988,7 @@
       <c r="O25" s="208"/>
       <c r="P25" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.5312499999999796</v>
+        <v>-6.1631944444444198</v>
       </c>
     </row>
     <row r="26" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41884,7 +42033,7 @@
       <c r="O26" s="208"/>
       <c r="P26" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-6.6979166666666501</v>
+        <v>-6.3298611111110903</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41929,7 +42078,7 @@
       <c r="O27" s="208"/>
       <c r="P27" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0312499999999796</v>
+        <v>-6.6631944444444198</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -41974,7 +42123,7 @@
       <c r="O28" s="208"/>
       <c r="P28" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0312499999999796</v>
+        <v>-6.6631944444444198</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42019,7 +42168,7 @@
       <c r="O29" s="208"/>
       <c r="P29" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0312499999999796</v>
+        <v>-6.6631944444444198</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42064,7 +42213,7 @@
       <c r="O30" s="208"/>
       <c r="P30" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0312499999999796</v>
+        <v>-6.6631944444444198</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42109,7 +42258,7 @@
       <c r="O31" s="208"/>
       <c r="P31" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.0312499999999796</v>
+        <v>-6.6631944444444198</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42154,7 +42303,7 @@
       <c r="O32" s="208"/>
       <c r="P32" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.3645833333333099</v>
+        <v>-6.9965277777777501</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42199,7 +42348,7 @@
       <c r="O33" s="208"/>
       <c r="P33" s="209">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.5312499999999796</v>
+        <v>-7.1631944444444198</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="89" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -42244,7 +42393,7 @@
       <c r="O34" s="221"/>
       <c r="P34" s="222">
         <f t="shared" ca="1" si="8"/>
-        <v>-7.8645833333333099</v>
+        <v>-7.4965277777777501</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="89" customFormat="1" ht="11.4" x14ac:dyDescent="0.2">
@@ -42275,7 +42424,7 @@
       </c>
       <c r="F36" s="232">
         <f ca="1">Juni!F40</f>
-        <v>-3.6979166666666599</v>
+        <v>-3.3298611111111001</v>
       </c>
       <c r="G36" s="163"/>
       <c r="H36" s="163"/>
@@ -42284,13 +42433,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B21)+SUMIF(J4:J34,Voreinstellungen!B22,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="387" t="s">
+      <c r="K36" s="382" t="s">
         <v>107</v>
       </c>
-      <c r="L36" s="387"/>
-      <c r="M36" s="387"/>
-      <c r="N36" s="387"/>
-      <c r="O36" s="387"/>
+      <c r="L36" s="382"/>
+      <c r="M36" s="382"/>
+      <c r="N36" s="382"/>
+      <c r="O36" s="382"/>
       <c r="P36" s="235">
         <f>(SUMIF(J4:J34,Voreinstellungen!B21,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B21,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B22,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B22,N4:N34))*-1</f>
         <v>0</v>
@@ -42316,14 +42465,14 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B25)+(COUNTIF(J4:J34,Voreinstellungen!B26)*Voreinstellungen!C26)</f>
         <v>0</v>
       </c>
-      <c r="K37" s="380" t="str">
+      <c r="K37" s="383" t="str">
         <f>"Urlaub (U/UH) aktuell noch Verfügbar: "&amp;Voreinstellungen!C38&amp;" Tag(e)"</f>
         <v>Urlaub (U/UH) aktuell noch Verfügbar: 0 Tag(e)</v>
       </c>
-      <c r="L37" s="380"/>
-      <c r="M37" s="380"/>
-      <c r="N37" s="380"/>
-      <c r="O37" s="380"/>
+      <c r="L37" s="383"/>
+      <c r="M37" s="383"/>
+      <c r="N37" s="383"/>
+      <c r="O37" s="383"/>
       <c r="P37" s="243">
         <f>SUMIF(J4:J34,Voreinstellungen!B25,N4:N34)+(SUMIF(J4:J34,Voreinstellungen!B26,N4:N34)*0.5)</f>
         <v>0</v>
@@ -42349,13 +42498,13 @@
         <f>COUNTIF(J4:J34,"G")</f>
         <v>0</v>
       </c>
-      <c r="K38" s="380" t="s">
+      <c r="K38" s="383" t="s">
         <v>108</v>
       </c>
-      <c r="L38" s="380"/>
-      <c r="M38" s="380"/>
-      <c r="N38" s="380"/>
-      <c r="O38" s="380"/>
+      <c r="L38" s="383"/>
+      <c r="M38" s="383"/>
+      <c r="N38" s="383"/>
+      <c r="O38" s="383"/>
       <c r="P38" s="248"/>
     </row>
     <row r="39" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42374,13 +42523,13 @@
         <f>COUNTIF(J4:J34,Voreinstellungen!B23)+SUMIF(J4:J34,Voreinstellungen!B24,Berechnungen!T2:T32)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="380" t="s">
+      <c r="K39" s="383" t="s">
         <v>110</v>
       </c>
-      <c r="L39" s="380"/>
-      <c r="M39" s="380"/>
-      <c r="N39" s="380"/>
-      <c r="O39" s="380"/>
+      <c r="L39" s="383"/>
+      <c r="M39" s="383"/>
+      <c r="N39" s="383"/>
+      <c r="O39" s="383"/>
       <c r="P39" s="252">
         <f>(SUMIF(J4:J34,Voreinstellungen!B23,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B23,N4:N34)+SUMIF(J4:J34,Voreinstellungen!B24,L4:L34)-SUMIF(J4:J34,Voreinstellungen!B24,N4:N34))*-1</f>
         <v>0</v>
@@ -42396,7 +42545,7 @@
       </c>
       <c r="F40" s="257">
         <f ca="1">ROUND(F38+F36-F39-F37,14)</f>
-        <v>-7.8645833333333304</v>
+        <v>-7.4965277777777697</v>
       </c>
       <c r="G40" s="163"/>
       <c r="H40" s="163"/>
@@ -42405,13 +42554,13 @@
         <f>COUNTIF(K4:K34,"&gt;0")-IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),0)-IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),0)-IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),0)-IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),0)-IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),0)-IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),0)-COUNTIF(J4:J34,"H")</f>
         <v>0</v>
       </c>
-      <c r="K40" s="381" t="s">
+      <c r="K40" s="384" t="s">
         <v>112</v>
       </c>
-      <c r="L40" s="381"/>
-      <c r="M40" s="381"/>
-      <c r="N40" s="381"/>
-      <c r="O40" s="381"/>
+      <c r="L40" s="384"/>
+      <c r="M40" s="384"/>
+      <c r="N40" s="384"/>
+      <c r="O40" s="384"/>
       <c r="P40" s="260"/>
     </row>
     <row r="41" spans="1:16" s="164" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -42446,14 +42595,14 @@
         <f>IF(Voreinstellungen!C28="","",IF(Voreinstellungen!C28="NONE",COUNTIF(J4:J34,Voreinstellungen!B28),IF(Voreinstellungen!C28="XTRA",COUNTIF(J4:J34,Voreinstellungen!B28),COUNTIF(J4:J34,Voreinstellungen!B28)*IF(Voreinstellungen!C28=0,1,Voreinstellungen!C28))))</f>
         <v>0</v>
       </c>
-      <c r="K42" s="382" t="str">
+      <c r="K42" s="385" t="str">
         <f>IF(Voreinstellungen!A28="","",REPT(Voreinstellungen!A28,1) &amp; " (" &amp; REPT(Voreinstellungen!B28,1) &amp; ")")</f>
         <v>Bereitschaft (B)</v>
       </c>
-      <c r="L42" s="382"/>
-      <c r="M42" s="382"/>
-      <c r="N42" s="382"/>
-      <c r="O42" s="382"/>
+      <c r="L42" s="385"/>
+      <c r="M42" s="385"/>
+      <c r="N42" s="385"/>
+      <c r="O42" s="385"/>
       <c r="P42" s="264">
         <f>IF(ISBLANK(Voreinstellungen!C28),"",IF(ISTEXT(Voreinstellungen!C28),SUMIF(J4:J34,Voreinstellungen!B28,K4:K34),""))</f>
         <v>0</v>
@@ -42473,14 +42622,14 @@
         <f>IF(Voreinstellungen!C29="","",IF(Voreinstellungen!C29="NONE",COUNTIF(J4:J34,Voreinstellungen!B29),IF(Voreinstellungen!C29="XTRA",COUNTIF(J4:J34,Voreinstellungen!B29),COUNTIF(J4:J34,Voreinstellungen!B29)*IF(Voreinstellungen!C29=0,1,Voreinstellungen!C29))))</f>
         <v/>
       </c>
-      <c r="K43" s="378" t="str">
+      <c r="K43" s="386" t="str">
         <f>IF(Voreinstellungen!A29="","",REPT(Voreinstellungen!A29,1) &amp; " (" &amp; REPT(Voreinstellungen!B29,1) &amp; ")")</f>
         <v>Eigener Code 1 (E1)</v>
       </c>
-      <c r="L43" s="378"/>
-      <c r="M43" s="378"/>
-      <c r="N43" s="378"/>
-      <c r="O43" s="378"/>
+      <c r="L43" s="386"/>
+      <c r="M43" s="386"/>
+      <c r="N43" s="386"/>
+      <c r="O43" s="386"/>
       <c r="P43" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C29),"",IF(ISTEXT(Voreinstellungen!C29),SUMIF(J4:J34,Voreinstellungen!B29,K4:K34),""))</f>
         <v/>
@@ -42504,14 +42653,14 @@
         <f>IF(Voreinstellungen!C30="","",IF(Voreinstellungen!C30="NONE",COUNTIF(J4:J34,Voreinstellungen!B30),IF(Voreinstellungen!C30="XTRA",COUNTIF(J4:J34,Voreinstellungen!B30),COUNTIF(J4:J34,Voreinstellungen!B30)*IF(Voreinstellungen!C30=0,1,Voreinstellungen!C30))))</f>
         <v/>
       </c>
-      <c r="K44" s="378" t="str">
+      <c r="K44" s="386" t="str">
         <f>IF(Voreinstellungen!A30="","",REPT(Voreinstellungen!A30,1) &amp; " (" &amp; REPT(Voreinstellungen!B30,1) &amp; ")")</f>
         <v>Eigener Code 2 (E2)</v>
       </c>
-      <c r="L44" s="378"/>
-      <c r="M44" s="378"/>
-      <c r="N44" s="378"/>
-      <c r="O44" s="378"/>
+      <c r="L44" s="386"/>
+      <c r="M44" s="386"/>
+      <c r="N44" s="386"/>
+      <c r="O44" s="386"/>
       <c r="P44" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C30),"",IF(ISTEXT(Voreinstellungen!C30),SUMIF(J4:J34,Voreinstellungen!B30,K4:K34),""))</f>
         <v/>
@@ -42531,14 +42680,14 @@
         <f>IF(Voreinstellungen!C31="","",IF(Voreinstellungen!C31="NONE",COUNTIF(J4:J34,Voreinstellungen!B31),IF(Voreinstellungen!C31="XTRA",COUNTIF(J4:J34,Voreinstellungen!B31),COUNTIF(J4:J34,Voreinstellungen!B31)*IF(Voreinstellungen!C31=0,1,Voreinstellungen!C31))))</f>
         <v/>
       </c>
-      <c r="K45" s="378" t="str">
+      <c r="K45" s="386" t="str">
         <f>IF(Voreinstellungen!A31="","",REPT(Voreinstellungen!A31,1) &amp; " (" &amp; REPT(Voreinstellungen!B31,1) &amp; ")")</f>
         <v>Eigener Code 3 (E3)</v>
       </c>
-      <c r="L45" s="378"/>
-      <c r="M45" s="378"/>
-      <c r="N45" s="378"/>
-      <c r="O45" s="378"/>
+      <c r="L45" s="386"/>
+      <c r="M45" s="386"/>
+      <c r="N45" s="386"/>
+      <c r="O45" s="386"/>
       <c r="P45" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C31),"",IF(ISTEXT(Voreinstellungen!C31),SUMIF(J4:J34,Voreinstellungen!B31,K4:K34),""))</f>
         <v/>
@@ -42558,14 +42707,14 @@
         <f>IF(Voreinstellungen!C32="","",IF(Voreinstellungen!C32="NONE",COUNTIF(J4:J34,Voreinstellungen!B32),IF(Voreinstellungen!C32="XTRA",COUNTIF(J4:J34,Voreinstellungen!B32),COUNTIF(J4:J34,Voreinstellungen!B32)*IF(Voreinstellungen!C32=0,1,Voreinstellungen!C32))))</f>
         <v/>
       </c>
-      <c r="K46" s="378" t="str">
+      <c r="K46" s="386" t="str">
         <f>IF(Voreinstellungen!A32="","",REPT(Voreinstellungen!A32,1) &amp; " (" &amp; REPT(Voreinstellungen!B32,1) &amp; ")")</f>
         <v>Eigener Code 4 (E4)</v>
       </c>
-      <c r="L46" s="378"/>
-      <c r="M46" s="378"/>
-      <c r="N46" s="378"/>
-      <c r="O46" s="378"/>
+      <c r="L46" s="386"/>
+      <c r="M46" s="386"/>
+      <c r="N46" s="386"/>
+      <c r="O46" s="386"/>
       <c r="P46" s="252" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C32),"",IF(ISTEXT(Voreinstellungen!C32),SUMIF(J4:J34,Voreinstellungen!B32,K4:K34),""))</f>
         <v/>
@@ -42589,14 +42738,14 @@
         <f>IF(Voreinstellungen!C33="","",IF(Voreinstellungen!C33="NONE",COUNTIF(J4:J34,Voreinstellungen!B33),IF(Voreinstellungen!C33="XTRA",COUNTIF(J4:J34,Voreinstellungen!B33),COUNTIF(J4:J34,Voreinstellungen!B33)*IF(Voreinstellungen!C33=0,1,Voreinstellungen!C33))))</f>
         <v/>
       </c>
-      <c r="K47" s="379" t="str">
+      <c r="K47" s="387" t="str">
         <f>IF(Voreinstellungen!A33="","",REPT(Voreinstellungen!A33,1) &amp; " (" &amp; REPT(Voreinstellungen!B33,1) &amp; ")")</f>
         <v>Eigener Code 5 (E5)</v>
       </c>
-      <c r="L47" s="379"/>
-      <c r="M47" s="379"/>
-      <c r="N47" s="379"/>
-      <c r="O47" s="379"/>
+      <c r="L47" s="387"/>
+      <c r="M47" s="387"/>
+      <c r="N47" s="387"/>
+      <c r="O47" s="387"/>
       <c r="P47" s="271" t="str">
         <f>IF(ISBLANK(Voreinstellungen!C33),"",IF(ISTEXT(Voreinstellungen!C33),SUMIF(J4:J34,Voreinstellungen!B33,K4:K34),""))</f>
         <v/>
@@ -42605,65 +42754,65 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="nomVLiSrDW6BfAYDAAIKepzv9c2fIXYLpRACXJd2H6GVs9wfhFNHh71b99zQzqGFAVmbKlb4Q6ZmMw43Z1PLzg==" saltValue="Qh9BryrLdDjvbd7vasrV7A==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="15">
+    <mergeCell ref="K43:O43"/>
+    <mergeCell ref="K44:O44"/>
+    <mergeCell ref="K45:O45"/>
+    <mergeCell ref="K46:O46"/>
+    <mergeCell ref="K47:O47"/>
+    <mergeCell ref="K37:O37"/>
+    <mergeCell ref="K38:O38"/>
+    <mergeCell ref="K39:O39"/>
+    <mergeCell ref="K40:O40"/>
+    <mergeCell ref="K42:O42"/>
     <mergeCell ref="A1:G2"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="K36:O36"/>
-    <mergeCell ref="K37:O37"/>
-    <mergeCell ref="K38:O38"/>
-    <mergeCell ref="K39:O39"/>
-    <mergeCell ref="K40:O40"/>
-    <mergeCell ref="K42:O42"/>
-    <mergeCell ref="K43:O43"/>
-    <mergeCell ref="K44:O44"/>
-    <mergeCell ref="K45:O45"/>
-    <mergeCell ref="K46:O46"/>
-    <mergeCell ref="K47:O47"/>
   </mergeCells>
   <conditionalFormatting sqref="J36:J47">
-    <cfRule type="expression" dxfId="83" priority="2">
+    <cfRule type="expression" dxfId="85" priority="2">
       <formula>MOD(J36,1)=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A4:M34 O4:P34">
-    <cfRule type="expression" dxfId="82" priority="3">
+    <cfRule type="expression" dxfId="84" priority="3">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="4">
+    <cfRule type="expression" dxfId="83" priority="4">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D34">
-    <cfRule type="expression" dxfId="80" priority="5">
+    <cfRule type="expression" dxfId="82" priority="5">
       <formula>ISTEXT($D4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E34">
-    <cfRule type="expression" dxfId="79" priority="6">
+    <cfRule type="expression" dxfId="81" priority="6">
       <formula>ISTEXT($E4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F34">
-    <cfRule type="expression" dxfId="78" priority="7">
+    <cfRule type="expression" dxfId="80" priority="7">
       <formula>ISTEXT($F4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G34">
-    <cfRule type="expression" dxfId="77" priority="8">
+    <cfRule type="expression" dxfId="79" priority="8">
       <formula>ISTEXT($G4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H34">
-    <cfRule type="expression" dxfId="76" priority="9">
+    <cfRule type="expression" dxfId="78" priority="9">
       <formula>ISTEXT($H4)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N4:N34">
-    <cfRule type="expression" dxfId="75" priority="10">
+    <cfRule type="expression" dxfId="77" priority="10">
       <formula>WEEKDAY($A4,2)=6</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="11">
+    <cfRule type="expression" dxfId="76" priority="11">
       <formula>OR(WEEKDAY($A4,2)=7,$C4&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
